--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +149,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +203,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -484,15 +506,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,105 +539,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,29 +668,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -969,7 +1001,7 @@
   <dimension ref="D7:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,113 +1016,113 @@
       </c>
     </row>
     <row r="8" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="21"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="22">
+      <c r="D8" s="18"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="19">
         <v>24</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>25</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>26</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>27</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>28</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>29</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <v>30</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="8"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="8"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1100,157 +1132,157 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="41"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="41"/>
-      <c r="E17" s="44" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" spans="4:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="41"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="41"/>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="4:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="42"/>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="32"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="4:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="41"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="4:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="41"/>
-      <c r="E23" s="44" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="41"/>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="49"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" spans="4:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="42"/>
-      <c r="E25" s="48" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,77 +38,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>조수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물에 따른 물 주기 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 영향 받는거 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물에 따라 따로 영향 받는 정보를 정리</t>
+  </si>
+  <si>
+    <t>임 준혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진 연주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(꽃)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 fragement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(스킬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(지속스킬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(OverlayView)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(상정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 받아오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부에서 점수 세부정보 보내면 코드에 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>앱에서 저장하는 정보 / 서버에 저장하는 정보 구별</t>
-  </si>
-  <si>
-    <t>조수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물에 따른 물 주기 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 영향 받는거 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물에 따라 따로 영향 받는 정보를 정리</t>
-  </si>
-  <si>
-    <t>임 준혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진 연주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(꽃)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 fragement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(스킬)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(지속스킬)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(OverlayView)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(상정)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 받아오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 클릭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +171,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -517,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,9 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,32 +666,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -684,10 +724,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF0000"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1000,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,10 +1084,10 @@
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="22"/>
@@ -1060,7 +1100,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="44"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1074,9 +1114,9 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="45"/>
-      <c r="E11" s="33" t="s">
-        <v>3</v>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -1088,11 +1128,11 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>5</v>
+      <c r="D12" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1104,9 +1144,9 @@
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="44"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1118,9 +1158,9 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="45"/>
-      <c r="E14" s="33" t="s">
-        <v>7</v>
+      <c r="D14" s="48"/>
+      <c r="E14" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="2"/>
@@ -1132,11 +1172,11 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>12</v>
+      <c r="D15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -1148,37 +1188,37 @@
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="48"/>
-      <c r="E16" s="36" t="s">
-        <v>11</v>
+      <c r="D16" s="51"/>
+      <c r="E16" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="48"/>
-      <c r="E17" s="37" t="s">
-        <v>13</v>
+      <c r="D17" s="51"/>
+      <c r="E17" s="36" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="4:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="48"/>
-      <c r="E18" s="37" t="s">
-        <v>14</v>
+      <c r="D18" s="51"/>
+      <c r="E18" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1186,13 +1226,13 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="48"/>
-      <c r="E19" s="37" t="s">
-        <v>17</v>
+      <c r="D19" s="51"/>
+      <c r="E19" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1204,9 +1244,9 @@
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="4:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="49"/>
-      <c r="E20" s="38" t="s">
-        <v>18</v>
+      <c r="D20" s="52"/>
+      <c r="E20" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -1218,11 +1258,11 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>19</v>
+      <c r="D21" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1234,9 +1274,9 @@
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="4:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="48"/>
-      <c r="E22" s="51" t="s">
-        <v>20</v>
+      <c r="D22" s="51"/>
+      <c r="E22" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1248,9 +1288,9 @@
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="4:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="48"/>
-      <c r="E23" s="37" t="s">
-        <v>15</v>
+      <c r="D23" s="51"/>
+      <c r="E23" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1262,9 +1302,9 @@
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="48"/>
-      <c r="E24" s="37" t="s">
-        <v>16</v>
+      <c r="D24" s="51"/>
+      <c r="E24" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1273,28 +1313,31 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="42"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="4:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="49"/>
-      <c r="E25" s="41" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="D21:D25"/>
+    <mergeCell ref="I25:M25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{58BF53BE-3618-44C0-995E-2F081E80C380}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,13 +109,21 @@
   </si>
   <si>
     <t>앱에서 저장하는 정보 / 서버에 저장하는 정보 구별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확한 데이터값 받은후 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버관련코드는 건들지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -642,12 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,41 +681,47 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -720,8 +729,36 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFCCCC"/>
@@ -784,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -836,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1030,18 +1067,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
-  <dimension ref="D7:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,12 +1087,12 @@
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="18"/>
       <c r="E8" s="31"/>
       <c r="F8" s="19">
@@ -1083,11 +1120,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="22"/>
@@ -1099,7 +1136,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="47"/>
       <c r="E10" s="11" t="s">
         <v>2</v>
@@ -1113,9 +1150,9 @@
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="4:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:15" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="48"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="24"/>
@@ -1127,7 +1164,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="49" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1180,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="47"/>
       <c r="E13" s="11" t="s">
         <v>5</v>
@@ -1157,7 +1194,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="4:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="48"/>
       <c r="E14" s="32" t="s">
         <v>6</v>
@@ -1171,11 +1208,11 @@
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="56" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="29"/>
@@ -1187,23 +1224,28 @@
       <c r="L15" s="23"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="51"/>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="57" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="51"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="8"/>
@@ -1211,13 +1253,13 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="4:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="51"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="8"/>
@@ -1226,12 +1268,12 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="51"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="8"/>
@@ -1245,7 +1287,7 @@
     </row>
     <row r="20" spans="4:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="52"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="26"/>
@@ -1261,7 +1303,7 @@
       <c r="D21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="44" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="23"/>
@@ -1275,7 +1317,7 @@
     </row>
     <row r="22" spans="4:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="51"/>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="13"/>
@@ -1289,7 +1331,7 @@
     </row>
     <row r="23" spans="4:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="51"/>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8"/>
@@ -1303,7 +1345,7 @@
     </row>
     <row r="24" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="51"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="8"/>
@@ -1313,16 +1355,16 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="41"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="4:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="52"/>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="53" t="s">
         <v>21</v>
       </c>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>앱에서 저장하는 정보 / 서버에 저장하는 정보 구별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,40 +682,40 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
-  <dimension ref="D7:M25"/>
+  <dimension ref="D7:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1088,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="48" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="44" t="s">
@@ -1100,7 +1104,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="47"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1118,7 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="48"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="45" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1132,7 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="51" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -1144,7 +1148,7 @@
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="47"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1162,7 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="48"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="32" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1176,7 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="34" t="s">
@@ -1188,7 +1192,7 @@
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="35" t="s">
         <v>10</v>
       </c>
@@ -1201,8 +1205,8 @@
       <c r="L16" s="8"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="51"/>
+    <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="53"/>
       <c r="E17" s="36" t="s">
         <v>12</v>
       </c>
@@ -1215,8 +1219,8 @@
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="4:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="51"/>
+    <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="53"/>
       <c r="E18" s="36" t="s">
         <v>13</v>
       </c>
@@ -1229,8 +1233,8 @@
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="51"/>
+    <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="53"/>
       <c r="E19" s="36" t="s">
         <v>16</v>
       </c>
@@ -1243,8 +1247,8 @@
       <c r="L19" s="8"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="4:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="52"/>
+    <row r="20" spans="4:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="54"/>
       <c r="E20" s="37" t="s">
         <v>17</v>
       </c>
@@ -1257,11 +1261,11 @@
       <c r="L20" s="26"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="50" t="s">
+    <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="46" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="23"/>
@@ -1273,8 +1277,8 @@
       <c r="L21" s="23"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="4:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="51"/>
+    <row r="22" spans="4:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="53"/>
       <c r="E22" s="43" t="s">
         <v>19</v>
       </c>
@@ -1287,9 +1291,9 @@
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="4:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="51"/>
-      <c r="E23" s="57" t="s">
+    <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="53"/>
+      <c r="E23" s="47" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8"/>
@@ -1301,8 +1305,8 @@
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="4:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="51"/>
+    <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="53"/>
       <c r="E24" s="36" t="s">
         <v>15</v>
       </c>
@@ -1315,21 +1319,120 @@
       <c r="L24" s="13"/>
       <c r="M24" s="41"/>
     </row>
-    <row r="25" spans="4:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="52"/>
+    <row r="25" spans="4:35" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="54"/>
       <c r="E25" s="40" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+    </row>
+    <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="18"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
+      <c r="H30" s="19">
+        <v>3</v>
+      </c>
+      <c r="I30" s="19">
+        <v>4</v>
+      </c>
+      <c r="J30" s="19">
+        <v>5</v>
+      </c>
+      <c r="K30" s="19">
+        <v>6</v>
+      </c>
+      <c r="L30" s="19">
+        <v>7</v>
+      </c>
+      <c r="M30" s="19">
+        <v>8</v>
+      </c>
+      <c r="N30" s="19">
+        <v>9</v>
+      </c>
+      <c r="O30" s="19">
+        <v>10</v>
+      </c>
+      <c r="P30" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>12</v>
+      </c>
+      <c r="R30" s="19">
+        <v>13</v>
+      </c>
+      <c r="S30" s="19">
+        <v>14</v>
+      </c>
+      <c r="T30" s="19">
+        <v>15</v>
+      </c>
+      <c r="U30" s="19">
+        <v>16</v>
+      </c>
+      <c r="V30" s="19">
+        <v>17</v>
+      </c>
+      <c r="W30" s="19">
+        <v>18</v>
+      </c>
+      <c r="X30" s="19">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>21</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>23</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>24</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>26</v>
+      </c>
+      <c r="AF30" s="19">
+        <v>27</v>
+      </c>
+      <c r="AG30" s="19">
+        <v>28</v>
+      </c>
+      <c r="AH30" s="19">
+        <v>29</v>
+      </c>
+      <c r="AI30" s="20">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,74 +50,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>임 준혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진 연주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(꽃)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 fragement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(스킬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(지속스킬)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(OverlayView)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴(상정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 받아오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획부에서 점수 세부정보 보내면 코드에 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱에서 저장하는 정보 / 서버에 저장하는 정보 구별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식 정리해서 올리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식 정리 및 데이터 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>식물에 따라 따로 영향 받는 정보를 정리</t>
-  </si>
-  <si>
-    <t>임 준혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진 연주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(꽃)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 fragement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(스킬)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(지속스킬)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(OverlayView)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴(상정)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 받아오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획부에서 점수 세부정보 보내면 코드에 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱에서 저장하는 정보 / 서버에 저장하는 정보 구별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -235,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -319,30 +337,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -397,15 +391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -450,43 +435,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -531,6 +479,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,167 +617,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,9 +787,9 @@
   <colors>
     <mruColors>
       <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFF0000"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1044,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,387 +1118,415 @@
       </c>
     </row>
     <row r="8" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="18"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="19">
+      <c r="D8" s="12"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13">
         <v>24</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>25</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <v>26</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="13">
         <v>27</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="13">
         <v>28</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="13">
         <v>29</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="13">
         <v>30</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="14">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="48" t="s">
+    <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="49"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="4:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="50"/>
-      <c r="E11" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="51" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="48"/>
+      <c r="E11" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="49"/>
+      <c r="E12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="48"/>
+      <c r="E14" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="48"/>
+      <c r="E15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="49"/>
+      <c r="E16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="49"/>
-      <c r="E13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="4:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="50"/>
-      <c r="E14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="52" t="s">
+      <c r="E17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="36"/>
+      <c r="E18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="36"/>
+      <c r="E19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="36"/>
+      <c r="E20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36"/>
+      <c r="E21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="37"/>
+      <c r="E22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="4:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="53"/>
-      <c r="E16" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="53"/>
-      <c r="E17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="53"/>
-      <c r="E18" s="36" t="s">
+      <c r="E23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="36"/>
+      <c r="E24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="36"/>
+      <c r="E25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-    </row>
-    <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="53"/>
-      <c r="E19" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="4:35" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="54"/>
-      <c r="E20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="4:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="53"/>
-      <c r="E22" s="43" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D26" s="36"/>
+      <c r="E26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="37"/>
+      <c r="E27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="53"/>
-      <c r="E23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="53"/>
-      <c r="E24" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="41"/>
-    </row>
-    <row r="25" spans="4:35" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="54"/>
-      <c r="E25" s="40" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="12"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
+      <c r="I30" s="13">
+        <v>4</v>
+      </c>
+      <c r="J30" s="13">
+        <v>5</v>
+      </c>
+      <c r="K30" s="13">
+        <v>6</v>
+      </c>
+      <c r="L30" s="13">
+        <v>7</v>
+      </c>
+      <c r="M30" s="13">
+        <v>8</v>
+      </c>
+      <c r="N30" s="13">
+        <v>9</v>
+      </c>
+      <c r="O30" s="13">
+        <v>10</v>
+      </c>
+      <c r="P30" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>12</v>
+      </c>
+      <c r="R30" s="13">
+        <v>13</v>
+      </c>
+      <c r="S30" s="13">
+        <v>14</v>
+      </c>
+      <c r="T30" s="13">
+        <v>15</v>
+      </c>
+      <c r="U30" s="13">
+        <v>16</v>
+      </c>
+      <c r="V30" s="13">
+        <v>17</v>
+      </c>
+      <c r="W30" s="13">
+        <v>18</v>
+      </c>
+      <c r="X30" s="13">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>21</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="18"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19">
-        <v>2</v>
-      </c>
-      <c r="H30" s="19">
-        <v>3</v>
-      </c>
-      <c r="I30" s="19">
-        <v>4</v>
-      </c>
-      <c r="J30" s="19">
-        <v>5</v>
-      </c>
-      <c r="K30" s="19">
-        <v>6</v>
-      </c>
-      <c r="L30" s="19">
-        <v>7</v>
-      </c>
-      <c r="M30" s="19">
-        <v>8</v>
-      </c>
-      <c r="N30" s="19">
-        <v>9</v>
-      </c>
-      <c r="O30" s="19">
-        <v>10</v>
-      </c>
-      <c r="P30" s="19">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>12</v>
-      </c>
-      <c r="R30" s="19">
-        <v>13</v>
-      </c>
-      <c r="S30" s="19">
-        <v>14</v>
-      </c>
-      <c r="T30" s="19">
-        <v>15</v>
-      </c>
-      <c r="U30" s="19">
-        <v>16</v>
-      </c>
-      <c r="V30" s="19">
-        <v>17</v>
-      </c>
-      <c r="W30" s="19">
-        <v>18</v>
-      </c>
-      <c r="X30" s="19">
-        <v>19</v>
-      </c>
-      <c r="Y30" s="19">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="19">
-        <v>21</v>
-      </c>
-      <c r="AA30" s="19">
-        <v>22</v>
-      </c>
-      <c r="AB30" s="19">
-        <v>23</v>
-      </c>
-      <c r="AC30" s="19">
+      <c r="AC30" s="13">
         <v>24</v>
       </c>
-      <c r="AD30" s="19">
+      <c r="AD30" s="13">
         <v>25</v>
       </c>
-      <c r="AE30" s="19">
+      <c r="AE30" s="13">
         <v>26</v>
       </c>
-      <c r="AF30" s="19">
+      <c r="AF30" s="13">
         <v>27</v>
       </c>
-      <c r="AG30" s="19">
+      <c r="AG30" s="13">
         <v>28</v>
       </c>
-      <c r="AH30" s="19">
+      <c r="AH30" s="13">
         <v>29</v>
       </c>
-      <c r="AI30" s="20">
+      <c r="AI30" s="14">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,6 +127,61 @@
   </si>
   <si>
     <t>식물에 따라 따로 영향 받는 정보를 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱에 저장되는 데이터 DB 구축(업적 / 밸런스)</t>
+  </si>
+  <si>
+    <t>앱에 저장되는 데이터 DB 구축(업적 / 밸런스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임준혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 기획 및 견적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속스킬에서 식물에 대한 정보 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 창 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite 쪽 코드 보고 있기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진연주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 받아오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터에 따른 식물 영향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 클릭(점수 및 식물의 레벨에 따른 클릭 횟수)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +265,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -253,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -592,6 +656,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,9 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -674,12 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,6 +990,45 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,24 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,26 +1056,143 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -786,10 +1204,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFCCCC"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFFF0000"/>
       <color rgb="FFFF5050"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1100,15 +1518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
-  <dimension ref="D7:AI30"/>
+  <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,52 +1536,52 @@
       </c>
     </row>
     <row r="8" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="13">
+      <c r="D8" s="56"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="12">
         <v>24</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>25</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>26</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>27</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>28</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>29</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>30</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="48"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="10"/>
@@ -1176,8 +1594,8 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="48"/>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="6"/>
@@ -1190,38 +1608,38 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="49"/>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="48"/>
-      <c r="E14" s="55" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="10"/>
@@ -1234,8 +1652,8 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="48"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="10"/>
@@ -1248,8 +1666,8 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="49"/>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="3"/>
@@ -1259,41 +1677,41 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="41"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="36"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="36"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7"/>
@@ -1301,13 +1719,13 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="36"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="7"/>
@@ -1316,12 +1734,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="36"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="7"/>
@@ -1334,38 +1752,38 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="37"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="19"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="36"/>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="11"/>
@@ -1378,8 +1796,8 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="36"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="7"/>
@@ -1392,8 +1810,8 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="36"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="7"/>
@@ -1403,23 +1821,23 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="30"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="37"/>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -1427,101 +1845,1222 @@
       </c>
     </row>
     <row r="30" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="12"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="13">
+      <c r="D30" s="56"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="57">
         <v>1</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="57">
         <v>2</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="57">
         <v>3</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="57">
         <v>4</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="57">
         <v>5</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="57">
         <v>6</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="57">
         <v>7</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="57">
         <v>8</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="57">
         <v>9</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="57">
         <v>10</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="57">
         <v>11</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="57">
         <v>12</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="57">
         <v>13</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="57">
         <v>14</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="57">
         <v>15</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="57">
         <v>16</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="57">
         <v>17</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="57">
         <v>18</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="57">
         <v>19</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="Y30" s="57">
         <v>20</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z30" s="57">
         <v>21</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="57">
         <v>22</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AB30" s="57">
         <v>23</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="57">
         <v>24</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AD30" s="57">
         <v>25</v>
       </c>
-      <c r="AE30" s="13">
+      <c r="AE30" s="57">
         <v>26</v>
       </c>
-      <c r="AF30" s="13">
+      <c r="AF30" s="57">
         <v>27</v>
       </c>
-      <c r="AG30" s="13">
+      <c r="AG30" s="57">
         <v>28</v>
       </c>
-      <c r="AH30" s="13">
+      <c r="AH30" s="57">
         <v>29</v>
       </c>
-      <c r="AI30" s="14">
+      <c r="AI30" s="58">
         <v>30</v>
       </c>
     </row>
+    <row r="31" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D31" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="72"/>
+    </row>
+    <row r="32" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D32" s="63"/>
+      <c r="E32" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="74"/>
+    </row>
+    <row r="33" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D33" s="63"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="74"/>
+    </row>
+    <row r="34" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D34" s="63"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="74"/>
+    </row>
+    <row r="35" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D35" s="63"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="74"/>
+    </row>
+    <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="64"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="77"/>
+    </row>
+    <row r="37" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D37" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="86"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="71"/>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="71"/>
+      <c r="AI37" s="72"/>
+    </row>
+    <row r="38" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D38" s="63"/>
+      <c r="E38" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="74"/>
+    </row>
+    <row r="39" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D39" s="63"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="74"/>
+    </row>
+    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D40" s="63"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="74"/>
+    </row>
+    <row r="41" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D41" s="63"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="74"/>
+    </row>
+    <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="64"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="77"/>
+    </row>
+    <row r="43" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="92"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="71"/>
+      <c r="AI43" s="72"/>
+    </row>
+    <row r="44" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D44" s="63"/>
+      <c r="E44" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="93"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="74"/>
+    </row>
+    <row r="45" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D45" s="63"/>
+      <c r="E45" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="73"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="74"/>
+    </row>
+    <row r="46" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D46" s="63"/>
+      <c r="E46" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="74"/>
+    </row>
+    <row r="47" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D47" s="63"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="68"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="74"/>
+    </row>
+    <row r="48" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D48" s="63"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="68"/>
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="68"/>
+      <c r="AE48" s="68"/>
+      <c r="AF48" s="68"/>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="74"/>
+    </row>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D49" s="63"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="68"/>
+      <c r="AC49" s="68"/>
+      <c r="AD49" s="68"/>
+      <c r="AE49" s="68"/>
+      <c r="AF49" s="68"/>
+      <c r="AG49" s="68"/>
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="74"/>
+    </row>
+    <row r="50" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D50" s="63"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+      <c r="Z50" s="68"/>
+      <c r="AA50" s="68"/>
+      <c r="AB50" s="68"/>
+      <c r="AC50" s="68"/>
+      <c r="AD50" s="68"/>
+      <c r="AE50" s="68"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="68"/>
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="74"/>
+    </row>
+    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D51" s="63"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="68"/>
+      <c r="Z51" s="68"/>
+      <c r="AA51" s="68"/>
+      <c r="AB51" s="68"/>
+      <c r="AC51" s="68"/>
+      <c r="AD51" s="68"/>
+      <c r="AE51" s="68"/>
+      <c r="AF51" s="68"/>
+      <c r="AG51" s="68"/>
+      <c r="AH51" s="68"/>
+      <c r="AI51" s="74"/>
+    </row>
+    <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="64"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="77"/>
+    </row>
+    <row r="53" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D53" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="98"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="84"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="85"/>
+    </row>
+    <row r="54" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D54" s="59"/>
+      <c r="E54" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="81"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="68"/>
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="74"/>
+    </row>
+    <row r="55" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D55" s="59"/>
+      <c r="E55" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="99"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="68"/>
+      <c r="AG55" s="68"/>
+      <c r="AH55" s="68"/>
+      <c r="AI55" s="74"/>
+    </row>
+    <row r="56" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D56" s="59"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="68"/>
+      <c r="AG56" s="68"/>
+      <c r="AH56" s="68"/>
+      <c r="AI56" s="74"/>
+    </row>
+    <row r="57" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D57" s="59"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="68"/>
+      <c r="AI57" s="74"/>
+    </row>
+    <row r="58" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D58" s="59"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+      <c r="AF58" s="68"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="74"/>
+    </row>
+    <row r="59" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D59" s="59"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="68"/>
+      <c r="AF59" s="68"/>
+      <c r="AG59" s="68"/>
+      <c r="AH59" s="68"/>
+      <c r="AI59" s="74"/>
+    </row>
+    <row r="60" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D60" s="59"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="68"/>
+      <c r="AH60" s="68"/>
+      <c r="AI60" s="74"/>
+    </row>
+    <row r="61" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D61" s="59"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+      <c r="AF61" s="68"/>
+      <c r="AG61" s="68"/>
+      <c r="AH61" s="68"/>
+      <c r="AI61" s="74"/>
+    </row>
+    <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="61"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="76"/>
+      <c r="T62" s="76"/>
+      <c r="U62" s="76"/>
+      <c r="V62" s="76"/>
+      <c r="W62" s="76"/>
+      <c r="X62" s="76"/>
+      <c r="Y62" s="76"/>
+      <c r="Z62" s="76"/>
+      <c r="AA62" s="76"/>
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="76"/>
+      <c r="AD62" s="76"/>
+      <c r="AE62" s="76"/>
+      <c r="AF62" s="76"/>
+      <c r="AG62" s="76"/>
+      <c r="AH62" s="76"/>
+      <c r="AI62" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="D53:D62"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\Gaia_Github3\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017\WebMo\reGaia\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,54 +134,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>임준혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 기획 및 견적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진연주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>앱에 저장되는 데이터 DB 구축(업적 / 밸런스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>앱에 저장되는 데이터 DB 구축(업적 / 밸런스)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>임준혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 기획 및 견적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속스킬에서 식물에 대한 정보 띄우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적 창 띄우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLite 쪽 코드 보고 있기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진연주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 데이터 받아오기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 데이터에 따른 식물 영향</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 클릭(점수 및 식물의 레벨에 따른 클릭 횟수)</t>
+    <t>스킬 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적서 비교 및 의뢰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 다듬기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 스킬 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창에서 스킬 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 상세 정보 Notification에 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 주기 / 패시브 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,6 +1058,126 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,152 +1196,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1520,14 +1561,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1536,7 +1577,7 @@
       </c>
     </row>
     <row r="8" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="56"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="21"/>
       <c r="F8" s="12">
         <v>24</v>
@@ -1564,7 +1605,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1580,7 +1621,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="52"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1635,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="52"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1608,7 +1649,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="53"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1663,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="81" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1638,7 +1679,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="52"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1693,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="52"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1666,7 +1707,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="53"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1680,10 +1721,10 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="19"/>
@@ -1696,8 +1737,8 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="46"/>
-      <c r="E18" s="55" t="s">
+      <c r="D18" s="86"/>
+      <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7"/>
@@ -1710,7 +1751,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="46"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1724,7 +1765,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="46"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1779,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="46"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1793,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="47"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1766,7 +1807,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="85" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1782,7 +1823,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="46"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1837,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="46"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +1851,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="46"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1824,20 +1865,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="47"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -1845,1227 +1886,1241 @@
       </c>
     </row>
     <row r="30" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="56"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="57">
+      <c r="F30" s="48">
         <v>1</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="48">
         <v>2</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="48">
         <v>3</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="48">
         <v>4</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="48">
         <v>5</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="48">
         <v>6</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="48">
         <v>7</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="48">
         <v>8</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="48">
         <v>9</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="48">
         <v>10</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="48">
         <v>11</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="48">
         <v>12</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="48">
         <v>13</v>
       </c>
-      <c r="S30" s="57">
+      <c r="S30" s="48">
         <v>14</v>
       </c>
-      <c r="T30" s="57">
+      <c r="T30" s="48">
         <v>15</v>
       </c>
-      <c r="U30" s="57">
+      <c r="U30" s="48">
         <v>16</v>
       </c>
-      <c r="V30" s="57">
+      <c r="V30" s="48">
         <v>17</v>
       </c>
-      <c r="W30" s="57">
+      <c r="W30" s="48">
         <v>18</v>
       </c>
-      <c r="X30" s="57">
+      <c r="X30" s="48">
         <v>19</v>
       </c>
-      <c r="Y30" s="57">
+      <c r="Y30" s="48">
         <v>20</v>
       </c>
-      <c r="Z30" s="57">
+      <c r="Z30" s="48">
         <v>21</v>
       </c>
-      <c r="AA30" s="57">
+      <c r="AA30" s="48">
         <v>22</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="48">
         <v>23</v>
       </c>
-      <c r="AC30" s="57">
+      <c r="AC30" s="48">
         <v>24</v>
       </c>
-      <c r="AD30" s="57">
+      <c r="AD30" s="48">
         <v>25</v>
       </c>
-      <c r="AE30" s="57">
+      <c r="AE30" s="48">
         <v>26</v>
       </c>
-      <c r="AF30" s="57">
+      <c r="AF30" s="48">
         <v>27</v>
       </c>
-      <c r="AG30" s="57">
+      <c r="AG30" s="48">
         <v>28</v>
       </c>
-      <c r="AH30" s="57">
+      <c r="AH30" s="48">
         <v>29</v>
       </c>
-      <c r="AI30" s="58">
+      <c r="AI30" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="57"/>
+    </row>
+    <row r="32" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D32" s="79"/>
+      <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="72"/>
-    </row>
-    <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="63"/>
-      <c r="E32" s="65" t="s">
+      <c r="F32" s="58"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="59"/>
+    </row>
+    <row r="33" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D33" s="79"/>
+      <c r="E33" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="59"/>
+    </row>
+    <row r="34" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D34" s="79"/>
+      <c r="E34" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="98"/>
+    </row>
+    <row r="35" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D35" s="79"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="59"/>
+    </row>
+    <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="80"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="62"/>
+    </row>
+    <row r="37" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D37" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="57"/>
+    </row>
+    <row r="38" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D38" s="79"/>
+      <c r="E38" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="59"/>
+    </row>
+    <row r="39" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D39" s="79"/>
+      <c r="E39" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="58"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="59"/>
+    </row>
+    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D40" s="79"/>
+      <c r="E40" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="53"/>
+      <c r="AH40" s="53"/>
+      <c r="AI40" s="59"/>
+    </row>
+    <row r="41" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D41" s="79"/>
+      <c r="E41" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="99"/>
+    </row>
+    <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="80"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="62"/>
+    </row>
+    <row r="43" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D43" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
+      <c r="AA43" s="56"/>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="56"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="57"/>
+    </row>
+    <row r="44" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D44" s="79"/>
+      <c r="E44" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="95"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="53"/>
+      <c r="AI44" s="59"/>
+    </row>
+    <row r="45" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D45" s="79"/>
+      <c r="E45" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="59"/>
+    </row>
+    <row r="46" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D46" s="79"/>
+      <c r="E46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="59"/>
+    </row>
+    <row r="47" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D47" s="79"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="53"/>
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="59"/>
+    </row>
+    <row r="48" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D48" s="79"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="59"/>
+    </row>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D49" s="79"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="59"/>
+    </row>
+    <row r="50" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D50" s="79"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53"/>
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53"/>
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="59"/>
+    </row>
+    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D51" s="79"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="59"/>
+    </row>
+    <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="80"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="62"/>
+    </row>
+    <row r="53" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D53" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="74"/>
-    </row>
-    <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="63"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="74"/>
-    </row>
-    <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="74"/>
-    </row>
-    <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="63"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="74"/>
-    </row>
-    <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="64"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="77"/>
-    </row>
-    <row r="37" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D37" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="72"/>
-    </row>
-    <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="63"/>
-      <c r="E38" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="74"/>
-    </row>
-    <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="63"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="74"/>
-    </row>
-    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="63"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="74"/>
-    </row>
-    <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="63"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68"/>
-      <c r="AI41" s="74"/>
-    </row>
-    <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="64"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="76"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="76"/>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="76"/>
-      <c r="AI42" s="77"/>
-    </row>
-    <row r="43" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D43" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="72"/>
-    </row>
-    <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="63"/>
-      <c r="E44" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="68"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="74"/>
-    </row>
-    <row r="45" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D45" s="63"/>
-      <c r="E45" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="74"/>
-    </row>
-    <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="63"/>
-      <c r="E46" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="68"/>
-      <c r="AB46" s="68"/>
-      <c r="AC46" s="68"/>
-      <c r="AD46" s="68"/>
-      <c r="AE46" s="68"/>
-      <c r="AF46" s="68"/>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="74"/>
-    </row>
-    <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="63"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="74"/>
-    </row>
-    <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="63"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="74"/>
-    </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D49" s="63"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="68"/>
-      <c r="AE49" s="68"/>
-      <c r="AF49" s="68"/>
-      <c r="AG49" s="68"/>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="74"/>
-    </row>
-    <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="68"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="68"/>
-      <c r="AB50" s="68"/>
-      <c r="AC50" s="68"/>
-      <c r="AD50" s="68"/>
-      <c r="AE50" s="68"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="74"/>
-    </row>
-    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="63"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="68"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="68"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
-      <c r="W51" s="68"/>
-      <c r="X51" s="68"/>
-      <c r="Y51" s="68"/>
-      <c r="Z51" s="68"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="68"/>
-      <c r="AC51" s="68"/>
-      <c r="AD51" s="68"/>
-      <c r="AE51" s="68"/>
-      <c r="AF51" s="68"/>
-      <c r="AG51" s="68"/>
-      <c r="AH51" s="68"/>
-      <c r="AI51" s="74"/>
-    </row>
-    <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="64"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="76"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="77"/>
-    </row>
-    <row r="53" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D53" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="98"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="84"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="85"/>
-    </row>
-    <row r="54" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D54" s="59"/>
-      <c r="E54" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="81"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
-      <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="68"/>
-      <c r="AF54" s="68"/>
-      <c r="AG54" s="68"/>
-      <c r="AH54" s="68"/>
-      <c r="AI54" s="74"/>
-    </row>
-    <row r="55" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D55" s="59"/>
-      <c r="E55" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="99"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
-      <c r="AC55" s="68"/>
-      <c r="AD55" s="68"/>
-      <c r="AE55" s="68"/>
-      <c r="AF55" s="68"/>
-      <c r="AG55" s="68"/>
-      <c r="AH55" s="68"/>
-      <c r="AI55" s="74"/>
+      <c r="E53" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="96"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
+      <c r="AE53" s="67"/>
+      <c r="AF53" s="67"/>
+      <c r="AG53" s="67"/>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="68"/>
+    </row>
+    <row r="54" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D54" s="83"/>
+      <c r="E54" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="64"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="53"/>
+      <c r="AG54" s="53"/>
+      <c r="AH54" s="53"/>
+      <c r="AI54" s="59"/>
+    </row>
+    <row r="55" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D55" s="83"/>
+      <c r="E55" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="97"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+      <c r="AE55" s="53"/>
+      <c r="AF55" s="53"/>
+      <c r="AG55" s="53"/>
+      <c r="AH55" s="53"/>
+      <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="59"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
-      <c r="AE56" s="68"/>
-      <c r="AF56" s="68"/>
-      <c r="AG56" s="68"/>
-      <c r="AH56" s="68"/>
-      <c r="AI56" s="74"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="53"/>
+      <c r="AE56" s="53"/>
+      <c r="AF56" s="53"/>
+      <c r="AG56" s="53"/>
+      <c r="AH56" s="53"/>
+      <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="59"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
-      <c r="AE57" s="68"/>
-      <c r="AF57" s="68"/>
-      <c r="AG57" s="68"/>
-      <c r="AH57" s="68"/>
-      <c r="AI57" s="74"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="64"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+      <c r="AE57" s="53"/>
+      <c r="AF57" s="53"/>
+      <c r="AG57" s="53"/>
+      <c r="AH57" s="53"/>
+      <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="59"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="74"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+      <c r="AE58" s="53"/>
+      <c r="AF58" s="53"/>
+      <c r="AG58" s="53"/>
+      <c r="AH58" s="53"/>
+      <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="59"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
-      <c r="AE59" s="68"/>
-      <c r="AF59" s="68"/>
-      <c r="AG59" s="68"/>
-      <c r="AH59" s="68"/>
-      <c r="AI59" s="74"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="53"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="59"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
-      <c r="AE60" s="68"/>
-      <c r="AF60" s="68"/>
-      <c r="AG60" s="68"/>
-      <c r="AH60" s="68"/>
-      <c r="AI60" s="74"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+      <c r="AE60" s="53"/>
+      <c r="AF60" s="53"/>
+      <c r="AG60" s="53"/>
+      <c r="AH60" s="53"/>
+      <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="59"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
-      <c r="AE61" s="68"/>
-      <c r="AF61" s="68"/>
-      <c r="AG61" s="68"/>
-      <c r="AH61" s="68"/>
-      <c r="AI61" s="74"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="53"/>
+      <c r="AE61" s="53"/>
+      <c r="AF61" s="53"/>
+      <c r="AG61" s="53"/>
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="59"/>
     </row>
     <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="61"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="76"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="76"/>
-      <c r="AA62" s="76"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="76"/>
-      <c r="AD62" s="76"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="76"/>
-      <c r="AG62" s="76"/>
-      <c r="AH62" s="76"/>
-      <c r="AI62" s="77"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
     <mergeCell ref="D53:D62"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,6 +211,49 @@
   </si>
   <si>
     <t>HP 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 로그인 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 정보 전달 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창 터치 기능 제한 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App 실행 시, 개발 툴 / 회사 상표 / 기상청 로고 띄워주기(로딩화면)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 업데이트 / 오류 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1200,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,9 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,53 +1278,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1561,14 +1622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ57" sqref="AJ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1605,7 +1666,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="92" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1621,7 +1682,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="91"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1696,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="91"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1649,7 +1710,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="92"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1724,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="92" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1679,7 +1740,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="91"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1754,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="91"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1768,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="92"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1782,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1737,7 +1798,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="86"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1812,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="86"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1826,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="86"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1840,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="86"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1793,7 +1854,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="87"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1868,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="101" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1823,7 +1884,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="86"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -1837,7 +1898,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="86"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -1851,7 +1912,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="86"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1865,20 +1926,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="87"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="91"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -1979,11 +2040,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D31" s="78" t="s">
+    <row r="31" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D31" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="78" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="71"/>
@@ -2018,7 +2079,7 @@
       <c r="AI31" s="57"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="79"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
@@ -2054,7 +2115,7 @@
       <c r="AI32" s="59"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="79"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="50" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2151,7 @@
       <c r="AI33" s="59"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="79"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="50" t="s">
         <v>37</v>
       </c>
@@ -2123,10 +2184,10 @@
       <c r="AF34" s="73"/>
       <c r="AG34" s="73"/>
       <c r="AH34" s="73"/>
-      <c r="AI34" s="98"/>
+      <c r="AI34" s="83"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="79"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="50"/>
       <c r="F35" s="58"/>
       <c r="G35" s="53"/>
@@ -2160,7 +2221,7 @@
       <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="80"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="54"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -2193,11 +2254,11 @@
       <c r="AH36" s="61"/>
       <c r="AI36" s="62"/>
     </row>
-    <row r="37" spans="4:35" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="D37" s="78" t="s">
+    <row r="37" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D37" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="78" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="69"/>
@@ -2232,7 +2293,7 @@
       <c r="AI37" s="57"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="79"/>
+      <c r="D38" s="96"/>
       <c r="E38" s="50" t="s">
         <v>33</v>
       </c>
@@ -2268,7 +2329,7 @@
       <c r="AI38" s="59"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="79"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="52" t="s">
         <v>34</v>
       </c>
@@ -2304,7 +2365,7 @@
       <c r="AI39" s="59"/>
     </row>
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="79"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="52" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2401,7 @@
       <c r="AI40" s="59"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="79"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="52" t="s">
         <v>37</v>
       </c>
@@ -2373,10 +2434,10 @@
       <c r="AF41" s="74"/>
       <c r="AG41" s="74"/>
       <c r="AH41" s="74"/>
-      <c r="AI41" s="99"/>
+      <c r="AI41" s="84"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="80"/>
+      <c r="D42" s="97"/>
       <c r="E42" s="54"/>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
@@ -2410,20 +2471,20 @@
       <c r="AI42" s="62"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="92" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="94"/>
+      <c r="F43" s="79"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
       <c r="P43" s="56"/>
@@ -2448,11 +2509,11 @@
       <c r="AI43" s="57"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="79"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="95"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
@@ -2484,7 +2545,7 @@
       <c r="AI44" s="59"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="79"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="55" t="s">
         <v>43</v>
       </c>
@@ -2520,7 +2581,7 @@
       <c r="AI45" s="59"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="79"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="50" t="s">
         <v>45</v>
       </c>
@@ -2538,7 +2599,7 @@
       <c r="Q46" s="75"/>
       <c r="R46" s="75"/>
       <c r="S46" s="75"/>
-      <c r="T46" s="53"/>
+      <c r="T46" s="75"/>
       <c r="U46" s="53"/>
       <c r="V46" s="53"/>
       <c r="W46" s="53"/>
@@ -2556,8 +2617,10 @@
       <c r="AI46" s="59"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="79"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="F47" s="58"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
@@ -2572,9 +2635,9 @@
       <c r="Q47" s="53"/>
       <c r="R47" s="53"/>
       <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
       <c r="W47" s="53"/>
       <c r="X47" s="53"/>
       <c r="Y47" s="53"/>
@@ -2590,8 +2653,10 @@
       <c r="AI47" s="59"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="79"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="F48" s="58"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
@@ -2608,8 +2673,8 @@
       <c r="S48" s="53"/>
       <c r="T48" s="53"/>
       <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
+      <c r="V48" s="75"/>
+      <c r="W48" s="75"/>
       <c r="X48" s="53"/>
       <c r="Y48" s="53"/>
       <c r="Z48" s="53"/>
@@ -2623,9 +2688,11 @@
       <c r="AH48" s="53"/>
       <c r="AI48" s="59"/>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D49" s="79"/>
-      <c r="E49" s="50"/>
+    <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D49" s="96"/>
+      <c r="E49" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="F49" s="58"/>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
@@ -2644,9 +2711,9 @@
       <c r="U49" s="53"/>
       <c r="V49" s="53"/>
       <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
+      <c r="Z49" s="75"/>
       <c r="AA49" s="53"/>
       <c r="AB49" s="53"/>
       <c r="AC49" s="53"/>
@@ -2658,8 +2725,10 @@
       <c r="AI49" s="59"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="79"/>
-      <c r="E50" s="50"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="50" t="s">
+        <v>54</v>
+      </c>
       <c r="F50" s="58"/>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
@@ -2681,9 +2750,9 @@
       <c r="X50" s="53"/>
       <c r="Y50" s="53"/>
       <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
+      <c r="AA50" s="75"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75"/>
       <c r="AD50" s="53"/>
       <c r="AE50" s="53"/>
       <c r="AF50" s="53"/>
@@ -2692,8 +2761,10 @@
       <c r="AI50" s="59"/>
     </row>
     <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="79"/>
-      <c r="E51" s="63"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="63" t="s">
+        <v>56</v>
+      </c>
       <c r="F51" s="58"/>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
@@ -2718,16 +2789,18 @@
       <c r="AA51" s="53"/>
       <c r="AB51" s="53"/>
       <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
+      <c r="AD51" s="75"/>
+      <c r="AE51" s="75"/>
       <c r="AF51" s="53"/>
       <c r="AG51" s="53"/>
       <c r="AH51" s="53"/>
       <c r="AI51" s="59"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="80"/>
-      <c r="E52" s="54"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -2754,26 +2827,26 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="62"/>
+      <c r="AF52" s="105"/>
+      <c r="AG52" s="105"/>
+      <c r="AH52" s="105"/>
+      <c r="AI52" s="106"/>
     </row>
     <row r="53" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="100" t="s">
+      <c r="E53" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="96"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="67"/>
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
       <c r="N53" s="67"/>
       <c r="O53" s="67"/>
       <c r="P53" s="67"/>
@@ -2798,8 +2871,8 @@
       <c r="AI53" s="68"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="83"/>
-      <c r="E54" s="103" t="s">
+      <c r="D54" s="99"/>
+      <c r="E54" s="88" t="s">
         <v>41</v>
       </c>
       <c r="F54" s="64"/>
@@ -2833,11 +2906,11 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="83"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="97"/>
+      <c r="F55" s="82"/>
       <c r="G55" s="76"/>
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
@@ -2869,7 +2942,7 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="83"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="63" t="s">
         <v>44</v>
       </c>
@@ -2889,8 +2962,8 @@
       <c r="S56" s="53"/>
       <c r="T56" s="53"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
       <c r="X56" s="53"/>
       <c r="Y56" s="53"/>
       <c r="Z56" s="53"/>
@@ -2905,7 +2978,7 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="83"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="63" t="s">
         <v>46</v>
       </c>
@@ -2925,8 +2998,8 @@
       <c r="S57" s="77"/>
       <c r="T57" s="77"/>
       <c r="U57" s="77"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
       <c r="X57" s="53"/>
       <c r="Y57" s="53"/>
       <c r="Z57" s="53"/>
@@ -2941,8 +3014,10 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="83"/>
-      <c r="E58" s="63"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="F58" s="64"/>
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
@@ -2960,8 +3035,8 @@
       <c r="T58" s="53"/>
       <c r="U58" s="53"/>
       <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
       <c r="Y58" s="53"/>
       <c r="Z58" s="53"/>
       <c r="AA58" s="53"/>
@@ -2975,8 +3050,10 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="83"/>
-      <c r="E59" s="63"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="F59" s="64"/>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
@@ -2995,9 +3072,9 @@
       <c r="U59" s="53"/>
       <c r="V59" s="53"/>
       <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
       <c r="AA59" s="53"/>
       <c r="AB59" s="53"/>
       <c r="AC59" s="53"/>
@@ -3009,8 +3086,10 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="83"/>
-      <c r="E60" s="63"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="63" t="s">
+        <v>49</v>
+      </c>
       <c r="F60" s="64"/>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
@@ -3030,11 +3109,11 @@
       <c r="V60" s="53"/>
       <c r="W60" s="53"/>
       <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="53"/>
+      <c r="Y60" s="77"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
       <c r="AD60" s="53"/>
       <c r="AE60" s="53"/>
       <c r="AF60" s="53"/>
@@ -3043,8 +3122,10 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="83"/>
-      <c r="E61" s="63"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="63" t="s">
+        <v>53</v>
+      </c>
       <c r="F61" s="64"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
@@ -3066,19 +3147,21 @@
       <c r="X61" s="53"/>
       <c r="Y61" s="53"/>
       <c r="Z61" s="53"/>
-      <c r="AA61" s="53"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="53"/>
-      <c r="AD61" s="53"/>
-      <c r="AE61" s="53"/>
-      <c r="AF61" s="53"/>
-      <c r="AG61" s="53"/>
-      <c r="AH61" s="53"/>
-      <c r="AI61" s="59"/>
+      <c r="AA61" s="77"/>
+      <c r="AB61" s="77"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
+      <c r="AG61" s="76"/>
+      <c r="AH61" s="76"/>
+      <c r="AI61" s="107"/>
     </row>
     <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="84"/>
-      <c r="E62" s="66"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="66" t="s">
+        <v>55</v>
+      </c>
       <c r="F62" s="65"/>
       <c r="G62" s="61"/>
       <c r="H62" s="61"/>
@@ -3103,24 +3186,24 @@
       <c r="AA62" s="61"/>
       <c r="AB62" s="61"/>
       <c r="AC62" s="61"/>
-      <c r="AD62" s="61"/>
-      <c r="AE62" s="61"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="61"/>
-      <c r="AH62" s="61"/>
-      <c r="AI62" s="62"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="108"/>
+      <c r="AF62" s="108"/>
+      <c r="AG62" s="108"/>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="D53:D62"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="D53:D62"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -249,11 +249,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>App 실행 시, 개발 툴 / 회사 상표 / 기상청 로고 띄워주기(로딩화면)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 업데이트 / 오류 수정</t>
+    <t>자체 제작 UI 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,6 +1229,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,9 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,46 +1286,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,8 +1305,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
@@ -1622,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ57" sqref="AJ57"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG63" sqref="AG63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1666,7 +1665,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1682,7 +1681,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="93"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="93"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1710,7 +1709,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="94"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1723,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="93" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1740,7 +1739,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="93"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1753,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="93"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1768,7 +1767,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="94"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1782,7 +1781,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="99" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1798,7 +1797,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="102"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1811,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="102"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1825,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="102"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1840,7 +1839,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="102"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1853,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="103"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +1867,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1884,7 +1883,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="102"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="102"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1911,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="102"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1926,20 +1925,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="103"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="91"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="104"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2040,8 +2039,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D31" s="95" t="s">
+    <row r="31" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D31" s="107" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="78" t="s">
@@ -2079,7 +2078,7 @@
       <c r="AI31" s="57"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="96"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2114,7 @@
       <c r="AI32" s="59"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="96"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="50" t="s">
         <v>36</v>
       </c>
@@ -2151,7 +2150,7 @@
       <c r="AI33" s="59"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="96"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="50" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2186,7 @@
       <c r="AI34" s="83"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="96"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="50"/>
       <c r="F35" s="58"/>
       <c r="G35" s="53"/>
@@ -2221,7 +2220,7 @@
       <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="97"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="54"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -2254,8 +2253,8 @@
       <c r="AH36" s="61"/>
       <c r="AI36" s="62"/>
     </row>
-    <row r="37" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D37" s="95" t="s">
+    <row r="37" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D37" s="107" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="78" t="s">
@@ -2293,7 +2292,7 @@
       <c r="AI37" s="57"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="96"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="50" t="s">
         <v>33</v>
       </c>
@@ -2329,7 +2328,7 @@
       <c r="AI38" s="59"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="96"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="52" t="s">
         <v>34</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="AI39" s="59"/>
     </row>
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="96"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="52" t="s">
         <v>35</v>
       </c>
@@ -2401,7 +2400,7 @@
       <c r="AI40" s="59"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="96"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="52" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +2436,7 @@
       <c r="AI41" s="84"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="97"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="54"/>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
@@ -2471,7 +2470,7 @@
       <c r="AI42" s="62"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="93" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="51" t="s">
@@ -2509,7 +2508,7 @@
       <c r="AI43" s="57"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="96"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="52" t="s">
         <v>39</v>
       </c>
@@ -2545,7 +2544,7 @@
       <c r="AI44" s="59"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="96"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="55" t="s">
         <v>43</v>
       </c>
@@ -2581,7 +2580,7 @@
       <c r="AI45" s="59"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="96"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="50" t="s">
         <v>45</v>
       </c>
@@ -2617,7 +2616,7 @@
       <c r="AI46" s="59"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="96"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="50" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2652,7 @@
       <c r="AI47" s="59"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="96"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="55" t="s">
         <v>51</v>
       </c>
@@ -2689,7 +2688,7 @@
       <c r="AI48" s="59"/>
     </row>
     <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="96"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="55" t="s">
         <v>52</v>
       </c>
@@ -2725,7 +2724,7 @@
       <c r="AI49" s="59"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="96"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="50" t="s">
         <v>54</v>
       </c>
@@ -2760,10 +2759,10 @@
       <c r="AH50" s="53"/>
       <c r="AI50" s="59"/>
     </row>
-    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="96"/>
-      <c r="E51" s="63" t="s">
-        <v>56</v>
+    <row r="51" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="94"/>
+      <c r="E51" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="F51" s="58"/>
       <c r="G51" s="53"/>
@@ -2791,16 +2790,13 @@
       <c r="AC51" s="53"/>
       <c r="AD51" s="75"/>
       <c r="AE51" s="75"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53"/>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="59"/>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="75"/>
+      <c r="AI51" s="108"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="97"/>
-      <c r="E52" s="54" t="s">
-        <v>57</v>
-      </c>
+      <c r="D52" s="95"/>
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -2827,13 +2823,13 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="61"/>
-      <c r="AF52" s="105"/>
-      <c r="AG52" s="105"/>
-      <c r="AH52" s="105"/>
-      <c r="AI52" s="106"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="109"/>
+      <c r="AI52" s="110"/>
     </row>
     <row r="53" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D53" s="98" t="s">
+      <c r="D53" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="85" t="s">
@@ -2871,7 +2867,7 @@
       <c r="AI53" s="68"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="99"/>
+      <c r="D54" s="97"/>
       <c r="E54" s="88" t="s">
         <v>41</v>
       </c>
@@ -2906,7 +2902,7 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="99"/>
+      <c r="D55" s="97"/>
       <c r="E55" s="63" t="s">
         <v>42</v>
       </c>
@@ -2942,7 +2938,7 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="99"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="63" t="s">
         <v>44</v>
       </c>
@@ -2978,7 +2974,7 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="99"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="63" t="s">
         <v>46</v>
       </c>
@@ -3014,7 +3010,7 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="99"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="63" t="s">
         <v>47</v>
       </c>
@@ -3050,7 +3046,7 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="99"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="63" t="s">
         <v>48</v>
       </c>
@@ -3072,7 +3068,7 @@
       <c r="U59" s="53"/>
       <c r="V59" s="53"/>
       <c r="W59" s="53"/>
-      <c r="X59" s="104"/>
+      <c r="X59" s="89"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="53"/>
@@ -3086,7 +3082,7 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="99"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="63" t="s">
         <v>49</v>
       </c>
@@ -3122,7 +3118,7 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="99"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="63" t="s">
         <v>53</v>
       </c>
@@ -3155,12 +3151,12 @@
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
-      <c r="AI61" s="107"/>
+      <c r="AI61" s="90"/>
     </row>
     <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="100"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62" s="65"/>
       <c r="G62" s="61"/>
@@ -3186,24 +3182,24 @@
       <c r="AA62" s="61"/>
       <c r="AB62" s="61"/>
       <c r="AC62" s="61"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="108"/>
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="108"/>
-      <c r="AI62" s="109"/>
+      <c r="AD62" s="91"/>
+      <c r="AE62" s="91"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
+      <c r="AH62" s="91"/>
+      <c r="AI62" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
     <mergeCell ref="D53:D62"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D37:D42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,70 +187,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>외부 창에서 스킬 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 상세 정보 Notification에 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 주기 / 패시브 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 로그인 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 정보 전달 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창 터치 기능 제한 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 제작 UI 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>날씨 데이터 연동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외부 창에서 스킬 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 상세 정보 Notification에 띄우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 주기 / 패시브 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정 창 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 DB 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 로그인 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 정보 전달 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 창 터치 기능 제한 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자체 제작 UI 제작</t>
+    <t>변경된 날씨 API에 따른 기획 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,9 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,59 +1243,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1305,9 +1316,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -1621,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG63" sqref="AG63"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1676,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="106" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1681,7 +1692,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="105"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1706,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="105"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +1720,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="106"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1723,7 +1734,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="106" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1739,7 +1750,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="105"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1764,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="105"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1767,7 +1778,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="106"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1792,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="100" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1797,7 +1808,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1822,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="100"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1836,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="100"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +1850,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="100"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1853,7 +1864,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="101"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1867,7 +1878,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="100" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1883,7 +1894,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="100"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -1897,7 +1908,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="100"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +1922,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="100"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1925,20 +1936,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="101"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="102" t="s">
+      <c r="I27" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2039,8 +2050,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D31" s="107" t="s">
+    <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="109" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="78" t="s">
@@ -2078,7 +2089,7 @@
       <c r="AI31" s="57"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="94"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
@@ -2114,7 +2125,7 @@
       <c r="AI32" s="59"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="94"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="50" t="s">
         <v>36</v>
       </c>
@@ -2150,7 +2161,7 @@
       <c r="AI33" s="59"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="94"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="50" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2197,7 @@
       <c r="AI34" s="83"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="94"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="50"/>
       <c r="F35" s="58"/>
       <c r="G35" s="53"/>
@@ -2220,7 +2231,7 @@
       <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="95"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="54"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -2254,7 +2265,7 @@
       <c r="AI36" s="62"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="109" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="78" t="s">
@@ -2292,8 +2303,8 @@
       <c r="AI37" s="57"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="94"/>
-      <c r="E38" s="50" t="s">
+      <c r="D38" s="110"/>
+      <c r="E38" s="95" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="58"/>
@@ -2328,7 +2339,7 @@
       <c r="AI38" s="59"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="94"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="52" t="s">
         <v>34</v>
       </c>
@@ -2364,7 +2375,7 @@
       <c r="AI39" s="59"/>
     </row>
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="94"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="52" t="s">
         <v>35</v>
       </c>
@@ -2400,7 +2411,7 @@
       <c r="AI40" s="59"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="94"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="52" t="s">
         <v>37</v>
       </c>
@@ -2436,8 +2447,10 @@
       <c r="AI41" s="84"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="95"/>
-      <c r="E42" s="54"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="54" t="s">
+        <v>57</v>
+      </c>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
       <c r="H42" s="61"/>
@@ -2445,9 +2458,9 @@
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
       <c r="P42" s="61"/>
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
@@ -2470,7 +2483,7 @@
       <c r="AI42" s="62"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="106" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="51" t="s">
@@ -2481,9 +2494,9 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
       <c r="P43" s="56"/>
@@ -2508,7 +2521,7 @@
       <c r="AI43" s="57"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="94"/>
+      <c r="D44" s="110"/>
       <c r="E44" s="52" t="s">
         <v>39</v>
       </c>
@@ -2544,9 +2557,9 @@
       <c r="AI44" s="59"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="94"/>
+      <c r="D45" s="110"/>
       <c r="E45" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="76"/>
@@ -2580,9 +2593,9 @@
       <c r="AI45" s="59"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="94"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="58"/>
       <c r="G46" s="53"/>
@@ -2616,9 +2629,9 @@
       <c r="AI46" s="59"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="94"/>
+      <c r="D47" s="110"/>
       <c r="E47" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="58"/>
       <c r="G47" s="53"/>
@@ -2652,9 +2665,9 @@
       <c r="AI47" s="59"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="94"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="58"/>
       <c r="G48" s="53"/>
@@ -2688,9 +2701,9 @@
       <c r="AI48" s="59"/>
     </row>
     <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="94"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="58"/>
       <c r="G49" s="53"/>
@@ -2724,9 +2737,9 @@
       <c r="AI49" s="59"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="94"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="58"/>
       <c r="G50" s="53"/>
@@ -2760,9 +2773,9 @@
       <c r="AI50" s="59"/>
     </row>
     <row r="51" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="94"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="58"/>
       <c r="G51" s="53"/>
@@ -2793,10 +2806,10 @@
       <c r="AF51" s="75"/>
       <c r="AG51" s="75"/>
       <c r="AH51" s="75"/>
-      <c r="AI51" s="108"/>
+      <c r="AI51" s="92"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="95"/>
+      <c r="D52" s="111"/>
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -2823,26 +2836,26 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="61"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="109"/>
-      <c r="AI52" s="110"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="93"/>
+      <c r="AI52" s="94"/>
     </row>
     <row r="53" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D53" s="96" t="s">
+      <c r="D53" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="85" t="s">
-        <v>40</v>
+      <c r="E53" s="112" t="s">
+        <v>41</v>
       </c>
       <c r="F53" s="81"/>
       <c r="G53" s="67"/>
       <c r="H53" s="67"/>
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
       <c r="N53" s="67"/>
       <c r="O53" s="67"/>
       <c r="P53" s="67"/>
@@ -2867,9 +2880,9 @@
       <c r="AI53" s="68"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="97"/>
-      <c r="E54" s="88" t="s">
-        <v>41</v>
+      <c r="D54" s="98"/>
+      <c r="E54" s="87" t="s">
+        <v>40</v>
       </c>
       <c r="F54" s="64"/>
       <c r="H54" s="76"/>
@@ -2902,9 +2915,9 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="97"/>
+      <c r="D55" s="98"/>
       <c r="E55" s="63" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F55" s="82"/>
       <c r="G55" s="76"/>
@@ -2938,9 +2951,9 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="97"/>
+      <c r="D56" s="98"/>
       <c r="E56" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="64"/>
       <c r="G56" s="53"/>
@@ -2974,9 +2987,9 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="97"/>
+      <c r="D57" s="98"/>
       <c r="E57" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57" s="64"/>
       <c r="G57" s="53"/>
@@ -3010,9 +3023,9 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="97"/>
+      <c r="D58" s="98"/>
       <c r="E58" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="64"/>
       <c r="G58" s="53"/>
@@ -3046,9 +3059,9 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="97"/>
+      <c r="D59" s="98"/>
       <c r="E59" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="64"/>
       <c r="G59" s="53"/>
@@ -3068,7 +3081,7 @@
       <c r="U59" s="53"/>
       <c r="V59" s="53"/>
       <c r="W59" s="53"/>
-      <c r="X59" s="89"/>
+      <c r="X59" s="88"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="53"/>
@@ -3082,9 +3095,9 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="97"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" s="64"/>
       <c r="G60" s="53"/>
@@ -3118,9 +3131,9 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="97"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="53"/>
@@ -3151,12 +3164,12 @@
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
-      <c r="AI61" s="90"/>
+      <c r="AI61" s="89"/>
     </row>
     <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="98"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F62" s="65"/>
       <c r="G62" s="61"/>
@@ -3182,24 +3195,24 @@
       <c r="AA62" s="61"/>
       <c r="AB62" s="61"/>
       <c r="AC62" s="61"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
-      <c r="AH62" s="91"/>
-      <c r="AI62" s="92"/>
+      <c r="AD62" s="90"/>
+      <c r="AE62" s="90"/>
+      <c r="AF62" s="90"/>
+      <c r="AG62" s="90"/>
+      <c r="AH62" s="90"/>
+      <c r="AI62" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D53:D62"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="I27:M27"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
-    <mergeCell ref="D53:D62"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="I27:M27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -1258,6 +1258,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,9 +1305,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="107" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1692,7 +1692,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="107"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="107" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1750,7 +1750,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="107"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="107"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1808,7 +1808,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="101"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="101"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="101"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="102"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="101" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1894,7 +1894,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="101"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="101"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -1936,20 +1936,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="102"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="103" t="s">
+      <c r="I27" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2051,7 +2051,7 @@
       </c>
     </row>
     <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="110" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="78" t="s">
@@ -2089,7 +2089,7 @@
       <c r="AI31" s="57"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="110"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="AI32" s="59"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="110"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="50" t="s">
         <v>36</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="AI33" s="59"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="110"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="50" t="s">
         <v>37</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="AI34" s="83"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="110"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="50"/>
       <c r="F35" s="58"/>
       <c r="G35" s="53"/>
@@ -2231,7 +2231,7 @@
       <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="111"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="54"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -2265,7 +2265,7 @@
       <c r="AI36" s="62"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="110" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="78" t="s">
@@ -2303,7 +2303,7 @@
       <c r="AI37" s="57"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="110"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="95" t="s">
         <v>33</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="AI38" s="59"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="110"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="52" t="s">
         <v>34</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="AI39" s="59"/>
     </row>
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="110"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="52" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="AI40" s="59"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="110"/>
+      <c r="D41" s="111"/>
       <c r="E41" s="52" t="s">
         <v>37</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="AI41" s="84"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="111"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="54" t="s">
         <v>57</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="AI42" s="62"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="107" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="51" t="s">
@@ -2521,7 +2521,7 @@
       <c r="AI43" s="57"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="110"/>
+      <c r="D44" s="111"/>
       <c r="E44" s="52" t="s">
         <v>39</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="AI44" s="59"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="110"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="55" t="s">
         <v>42</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="AI45" s="59"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="110"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="50" t="s">
         <v>44</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="AI46" s="59"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="110"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="50" t="s">
         <v>49</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="AI47" s="59"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="110"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="55" t="s">
         <v>50</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="AI48" s="59"/>
     </row>
     <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="110"/>
+      <c r="D49" s="111"/>
       <c r="E49" s="55" t="s">
         <v>51</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="AI49" s="59"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="110"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="50" t="s">
         <v>53</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="AI50" s="59"/>
     </row>
     <row r="51" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="54" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="AI51" s="92"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="111"/>
+      <c r="D52" s="112"/>
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -2842,10 +2842,10 @@
       <c r="AI52" s="94"/>
     </row>
     <row r="53" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="112" t="s">
+      <c r="E53" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F53" s="81"/>
@@ -2880,7 +2880,7 @@
       <c r="AI53" s="68"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="98"/>
+      <c r="D54" s="99"/>
       <c r="E54" s="87" t="s">
         <v>40</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="98"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="63" t="s">
         <v>56</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="98"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="63" t="s">
         <v>43</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="98"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="63" t="s">
         <v>45</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="98"/>
+      <c r="D58" s="99"/>
       <c r="E58" s="63" t="s">
         <v>46</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="98"/>
+      <c r="D59" s="99"/>
       <c r="E59" s="63" t="s">
         <v>47</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="98"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="63" t="s">
         <v>48</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="98"/>
+      <c r="D61" s="99"/>
       <c r="E61" s="63" t="s">
         <v>52</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="AI61" s="89"/>
     </row>
     <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="99"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="66" t="s">
         <v>55</v>
       </c>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -1633,7 +1633,7 @@
   <dimension ref="D7:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2772,9 +2772,9 @@
       <c r="AH50" s="53"/>
       <c r="AI50" s="59"/>
     </row>
-    <row r="51" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D51" s="111"/>
-      <c r="E51" s="54" t="s">
+      <c r="E51" s="63" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="58"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상점 DB 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>견적서 비교 및 의뢰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -255,6 +251,18 @@
   </si>
   <si>
     <t>변경된 날씨 API에 따른 기획 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 DB 구축 / 업적 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 변경에 따른 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +355,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +405,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -954,6 +976,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -966,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1312,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1261,15 +1330,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,6 +1376,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,9 +1409,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FFFF0000"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -1630,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
-  <dimension ref="D7:AI62"/>
+  <dimension ref="D7:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2127,7 +2220,7 @@
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D33" s="111"/>
       <c r="E33" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="53"/>
@@ -2163,7 +2256,7 @@
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D34" s="111"/>
       <c r="E34" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="53"/>
@@ -2304,7 +2397,7 @@
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D38" s="111"/>
-      <c r="E38" s="95" t="s">
+      <c r="E38" s="94" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="58"/>
@@ -2315,7 +2408,7 @@
       <c r="K38" s="74"/>
       <c r="L38" s="74"/>
       <c r="M38" s="74"/>
-      <c r="N38" s="76"/>
+      <c r="N38" s="97"/>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
@@ -2377,7 +2470,7 @@
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D40" s="111"/>
       <c r="E40" s="52" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F40" s="58"/>
       <c r="G40" s="53"/>
@@ -2390,7 +2483,7 @@
       <c r="N40" s="53"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
-      <c r="Q40" s="53"/>
+      <c r="Q40" s="74"/>
       <c r="R40" s="53"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
@@ -2413,7 +2506,7 @@
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D41" s="111"/>
       <c r="E41" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="58"/>
       <c r="G41" s="53"/>
@@ -2449,7 +2542,7 @@
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="112"/>
       <c r="E42" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
@@ -2458,9 +2551,9 @@
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
       <c r="P42" s="61"/>
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
@@ -2487,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="79"/>
       <c r="G43" s="56"/>
@@ -2497,7 +2590,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
       <c r="M43" s="85"/>
-      <c r="N43" s="56"/>
+      <c r="N43" s="98"/>
       <c r="O43" s="56"/>
       <c r="P43" s="56"/>
       <c r="Q43" s="56"/>
@@ -2523,7 +2616,7 @@
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D44" s="111"/>
       <c r="E44" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="80"/>
       <c r="G44" s="53"/>
@@ -2559,7 +2652,7 @@
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D45" s="111"/>
       <c r="E45" s="55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="76"/>
@@ -2595,7 +2688,7 @@
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D46" s="111"/>
       <c r="E46" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="58"/>
       <c r="G46" s="53"/>
@@ -2631,7 +2724,7 @@
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D47" s="111"/>
       <c r="E47" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="58"/>
       <c r="G47" s="53"/>
@@ -2667,7 +2760,7 @@
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D48" s="111"/>
       <c r="E48" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="58"/>
       <c r="G48" s="53"/>
@@ -2703,7 +2796,7 @@
     <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
       <c r="D49" s="111"/>
       <c r="E49" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="58"/>
       <c r="G49" s="53"/>
@@ -2739,7 +2832,7 @@
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D50" s="111"/>
       <c r="E50" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="58"/>
       <c r="G50" s="53"/>
@@ -2775,7 +2868,7 @@
     <row r="51" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D51" s="111"/>
       <c r="E51" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="58"/>
       <c r="G51" s="53"/>
@@ -2806,10 +2899,13 @@
       <c r="AF51" s="75"/>
       <c r="AG51" s="75"/>
       <c r="AH51" s="75"/>
-      <c r="AI51" s="92"/>
+      <c r="AI51" s="91"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="112"/>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -2825,8 +2921,8 @@
       <c r="R52" s="61"/>
       <c r="S52" s="61"/>
       <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="61"/>
+      <c r="U52" s="99"/>
+      <c r="V52" s="99"/>
       <c r="W52" s="61"/>
       <c r="X52" s="61"/>
       <c r="Y52" s="61"/>
@@ -2836,17 +2932,17 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="61"/>
-      <c r="AF52" s="93"/>
-      <c r="AG52" s="93"/>
-      <c r="AH52" s="93"/>
-      <c r="AI52" s="94"/>
-    </row>
-    <row r="53" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D53" s="98" t="s">
+      <c r="AF52" s="92"/>
+      <c r="AG52" s="92"/>
+      <c r="AH52" s="92"/>
+      <c r="AI52" s="93"/>
+    </row>
+    <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="97" t="s">
-        <v>41</v>
+      <c r="E53" s="96" t="s">
+        <v>40</v>
       </c>
       <c r="F53" s="81"/>
       <c r="G53" s="67"/>
@@ -2880,9 +2976,9 @@
       <c r="AI53" s="68"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="99"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="64"/>
       <c r="H54" s="76"/>
@@ -2892,7 +2988,7 @@
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
       <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
+      <c r="O54" s="76"/>
       <c r="P54" s="77"/>
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
@@ -2915,9 +3011,9 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="99"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="82"/>
       <c r="G55" s="76"/>
@@ -2951,9 +3047,9 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="99"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" s="64"/>
       <c r="G56" s="53"/>
@@ -2987,9 +3083,9 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="99"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="64"/>
       <c r="G57" s="53"/>
@@ -3023,9 +3119,9 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="99"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" s="64"/>
       <c r="G58" s="53"/>
@@ -3059,9 +3155,9 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="99"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="64"/>
       <c r="G59" s="53"/>
@@ -3095,9 +3191,9 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="99"/>
+      <c r="D60" s="100"/>
       <c r="E60" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="64"/>
       <c r="G60" s="53"/>
@@ -3131,9 +3227,9 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="99"/>
+      <c r="D61" s="100"/>
       <c r="E61" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="53"/>
@@ -3166,45 +3262,80 @@
       <c r="AH61" s="76"/>
       <c r="AI61" s="89"/>
     </row>
-    <row r="62" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:35" x14ac:dyDescent="0.3">
       <c r="D62" s="100"/>
-      <c r="E62" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="61"/>
-      <c r="AB62" s="61"/>
-      <c r="AC62" s="61"/>
-      <c r="AD62" s="90"/>
-      <c r="AE62" s="90"/>
-      <c r="AF62" s="90"/>
-      <c r="AG62" s="90"/>
-      <c r="AH62" s="90"/>
-      <c r="AI62" s="91"/>
+      <c r="E62" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="115"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="115"/>
+      <c r="N62" s="115"/>
+      <c r="O62" s="115"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="115"/>
+      <c r="T62" s="115"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="115"/>
+      <c r="W62" s="115"/>
+      <c r="X62" s="115"/>
+      <c r="Y62" s="115"/>
+      <c r="Z62" s="115"/>
+      <c r="AA62" s="115"/>
+      <c r="AB62" s="115"/>
+      <c r="AC62" s="115"/>
+      <c r="AD62" s="116"/>
+      <c r="AE62" s="116"/>
+      <c r="AF62" s="116"/>
+      <c r="AG62" s="116"/>
+      <c r="AH62" s="116"/>
+      <c r="AI62" s="117"/>
+    </row>
+    <row r="63" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="119"/>
+      <c r="E63" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="65"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="61"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D53:D62"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
@@ -3213,6 +3344,7 @@
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
+    <mergeCell ref="D53:D63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -1237,9 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1339,9 +1336,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,43 +1390,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1785,7 +1785,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="108"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="108"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="109"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="108"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="108"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="109"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="111" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1901,7 +1901,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="102"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="102"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="102"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="102"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="103"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="111" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1987,7 +1987,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="102"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="102"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="102"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2029,20 +2029,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="103"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="104" t="s">
+      <c r="I27" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="106"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2144,14 +2144,14 @@
       </c>
     </row>
     <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -2182,19 +2182,19 @@
       <c r="AI31" s="57"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="111"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
@@ -2218,7 +2218,7 @@
       <c r="AI32" s="59"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="111"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="50" t="s">
         <v>35</v>
       </c>
@@ -2231,12 +2231,12 @@
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
       <c r="U33" s="53"/>
       <c r="V33" s="53"/>
       <c r="W33" s="53"/>
@@ -2254,7 +2254,7 @@
       <c r="AI33" s="59"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="111"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="50" t="s">
         <v>36</v>
       </c>
@@ -2272,25 +2272,25 @@
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
       <c r="S34" s="53"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="83"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="82"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="111"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="50"/>
       <c r="F35" s="58"/>
       <c r="G35" s="53"/>
@@ -2324,7 +2324,7 @@
       <c r="AI35" s="59"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="112"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="54"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -2358,14 +2358,14 @@
       <c r="AI36" s="62"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -2396,19 +2396,19 @@
       <c r="AI37" s="57"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="111"/>
-      <c r="E38" s="94" t="s">
+      <c r="D38" s="105"/>
+      <c r="E38" s="93" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="58"/>
       <c r="G38" s="53"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="97"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="96"/>
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
@@ -2432,7 +2432,7 @@
       <c r="AI38" s="59"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="111"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="52" t="s">
         <v>34</v>
       </c>
@@ -2443,9 +2443,9 @@
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
       <c r="P39" s="53"/>
       <c r="Q39" s="53"/>
       <c r="R39" s="53"/>
@@ -2468,7 +2468,7 @@
       <c r="AI39" s="59"/>
     </row>
     <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="111"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="52" t="s">
         <v>57</v>
       </c>
@@ -2481,9 +2481,9 @@
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
       <c r="N40" s="53"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
       <c r="R40" s="53"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
@@ -2504,7 +2504,7 @@
       <c r="AI40" s="59"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="111"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="52" t="s">
         <v>36</v>
       </c>
@@ -2518,29 +2518,29 @@
       <c r="M41" s="53"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="74"/>
-      <c r="AG41" s="74"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="84"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="83"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="112"/>
+      <c r="D42" s="106"/>
       <c r="E42" s="54" t="s">
         <v>56</v>
       </c>
@@ -2551,9 +2551,9 @@
       <c r="J42" s="61"/>
       <c r="K42" s="61"/>
       <c r="L42" s="61"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
       <c r="P42" s="61"/>
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
@@ -2582,15 +2582,15 @@
       <c r="E43" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="79"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="98"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="97"/>
       <c r="O43" s="56"/>
       <c r="P43" s="56"/>
       <c r="Q43" s="56"/>
@@ -2614,21 +2614,21 @@
       <c r="AI43" s="57"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="111"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="80"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
       <c r="L44" s="53"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="76"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="75"/>
       <c r="Q44" s="53"/>
       <c r="R44" s="53"/>
       <c r="S44" s="53"/>
@@ -2650,23 +2650,23 @@
       <c r="AI44" s="59"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="111"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F45" s="58"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="53"/>
       <c r="J45" s="53"/>
       <c r="K45" s="53"/>
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
       <c r="N45" s="53"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="76"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="75"/>
       <c r="S45" s="53"/>
       <c r="T45" s="53"/>
       <c r="U45" s="53"/>
@@ -2686,14 +2686,14 @@
       <c r="AI45" s="59"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="111"/>
+      <c r="D46" s="105"/>
       <c r="E46" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="58"/>
       <c r="G46" s="53"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="53"/>
       <c r="K46" s="53"/>
       <c r="L46" s="53"/>
@@ -2701,10 +2701,10 @@
       <c r="N46" s="53"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
       <c r="U46" s="53"/>
       <c r="V46" s="53"/>
       <c r="W46" s="53"/>
@@ -2722,7 +2722,7 @@
       <c r="AI46" s="59"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="111"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="50" t="s">
         <v>48</v>
       </c>
@@ -2740,9 +2740,9 @@
       <c r="Q47" s="53"/>
       <c r="R47" s="53"/>
       <c r="S47" s="53"/>
-      <c r="T47" s="75"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
       <c r="W47" s="53"/>
       <c r="X47" s="53"/>
       <c r="Y47" s="53"/>
@@ -2758,7 +2758,7 @@
       <c r="AI47" s="59"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="111"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="55" t="s">
         <v>49</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="S48" s="53"/>
       <c r="T48" s="53"/>
       <c r="U48" s="53"/>
-      <c r="V48" s="75"/>
-      <c r="W48" s="75"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
       <c r="X48" s="53"/>
       <c r="Y48" s="53"/>
       <c r="Z48" s="53"/>
@@ -2794,7 +2794,7 @@
       <c r="AI48" s="59"/>
     </row>
     <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="111"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="55" t="s">
         <v>50</v>
       </c>
@@ -2816,9 +2816,9 @@
       <c r="U49" s="53"/>
       <c r="V49" s="53"/>
       <c r="W49" s="53"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="75"/>
-      <c r="Z49" s="75"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
       <c r="AA49" s="53"/>
       <c r="AB49" s="53"/>
       <c r="AC49" s="53"/>
@@ -2830,7 +2830,7 @@
       <c r="AI49" s="59"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="111"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="50" t="s">
         <v>52</v>
       </c>
@@ -2855,9 +2855,9 @@
       <c r="X50" s="53"/>
       <c r="Y50" s="53"/>
       <c r="Z50" s="53"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
-      <c r="AC50" s="75"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
       <c r="AD50" s="53"/>
       <c r="AE50" s="53"/>
       <c r="AF50" s="53"/>
@@ -2866,7 +2866,7 @@
       <c r="AI50" s="59"/>
     </row>
     <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="111"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="63" t="s">
         <v>53</v>
       </c>
@@ -2894,15 +2894,15 @@
       <c r="AA51" s="53"/>
       <c r="AB51" s="53"/>
       <c r="AC51" s="53"/>
-      <c r="AD51" s="75"/>
-      <c r="AE51" s="75"/>
-      <c r="AF51" s="75"/>
-      <c r="AG51" s="75"/>
-      <c r="AH51" s="75"/>
-      <c r="AI51" s="91"/>
+      <c r="AD51" s="74"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="74"/>
+      <c r="AG51" s="74"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="90"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="112"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="1" t="s">
         <v>58</v>
       </c>
@@ -2921,8 +2921,8 @@
       <c r="R52" s="61"/>
       <c r="S52" s="61"/>
       <c r="T52" s="61"/>
-      <c r="U52" s="99"/>
-      <c r="V52" s="99"/>
+      <c r="U52" s="98"/>
+      <c r="V52" s="98"/>
       <c r="W52" s="61"/>
       <c r="X52" s="61"/>
       <c r="Y52" s="61"/>
@@ -2932,64 +2932,64 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="61"/>
-      <c r="AF52" s="92"/>
-      <c r="AG52" s="92"/>
-      <c r="AH52" s="92"/>
-      <c r="AI52" s="93"/>
+      <c r="AF52" s="91"/>
+      <c r="AG52" s="91"/>
+      <c r="AH52" s="91"/>
+      <c r="AI52" s="92"/>
     </row>
     <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="118" t="s">
+      <c r="D53" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="96" t="s">
+      <c r="E53" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
-      <c r="AE53" s="67"/>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="68"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="66"/>
+      <c r="Y53" s="66"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="66"/>
+      <c r="AB53" s="66"/>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="66"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="67"/>
     </row>
     <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="100"/>
-      <c r="E54" s="87" t="s">
+      <c r="D54" s="109"/>
+      <c r="E54" s="86" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="64"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="77"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="76"/>
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="53"/>
@@ -3011,12 +3011,12 @@
       <c r="AI54" s="59"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="100"/>
+      <c r="D55" s="109"/>
       <c r="E55" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="82"/>
-      <c r="G55" s="76"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
       <c r="J55" s="53"/>
@@ -3024,8 +3024,8 @@
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
       <c r="N55" s="53"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
       <c r="Q55" s="53"/>
       <c r="R55" s="53"/>
       <c r="S55" s="53"/>
@@ -3047,7 +3047,7 @@
       <c r="AI55" s="59"/>
     </row>
     <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="100"/>
+      <c r="D56" s="109"/>
       <c r="E56" s="63" t="s">
         <v>42</v>
       </c>
@@ -3061,14 +3061,14 @@
       <c r="M56" s="53"/>
       <c r="N56" s="53"/>
       <c r="O56" s="53"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
       <c r="S56" s="53"/>
       <c r="T56" s="53"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="77"/>
-      <c r="W56" s="77"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
       <c r="X56" s="53"/>
       <c r="Y56" s="53"/>
       <c r="Z56" s="53"/>
@@ -3083,7 +3083,7 @@
       <c r="AI56" s="59"/>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="100"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="63" t="s">
         <v>44</v>
       </c>
@@ -3099,12 +3099,12 @@
       <c r="O57" s="53"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="53"/>
-      <c r="R57" s="77"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="77"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
       <c r="X57" s="53"/>
       <c r="Y57" s="53"/>
       <c r="Z57" s="53"/>
@@ -3119,7 +3119,7 @@
       <c r="AI57" s="59"/>
     </row>
     <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="100"/>
+      <c r="D58" s="109"/>
       <c r="E58" s="63" t="s">
         <v>45</v>
       </c>
@@ -3140,8 +3140,8 @@
       <c r="T58" s="53"/>
       <c r="U58" s="53"/>
       <c r="V58" s="53"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
       <c r="Y58" s="53"/>
       <c r="Z58" s="53"/>
       <c r="AA58" s="53"/>
@@ -3155,7 +3155,7 @@
       <c r="AI58" s="59"/>
     </row>
     <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="100"/>
+      <c r="D59" s="109"/>
       <c r="E59" s="63" t="s">
         <v>46</v>
       </c>
@@ -3177,9 +3177,9 @@
       <c r="U59" s="53"/>
       <c r="V59" s="53"/>
       <c r="W59" s="53"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="75"/>
+      <c r="Z59" s="75"/>
       <c r="AA59" s="53"/>
       <c r="AB59" s="53"/>
       <c r="AC59" s="53"/>
@@ -3191,7 +3191,7 @@
       <c r="AI59" s="59"/>
     </row>
     <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="100"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="63" t="s">
         <v>47</v>
       </c>
@@ -3214,11 +3214,11 @@
       <c r="V60" s="53"/>
       <c r="W60" s="53"/>
       <c r="X60" s="53"/>
-      <c r="Y60" s="77"/>
-      <c r="Z60" s="77"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="75"/>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="75"/>
       <c r="AD60" s="53"/>
       <c r="AE60" s="53"/>
       <c r="AF60" s="53"/>
@@ -3227,7 +3227,7 @@
       <c r="AI60" s="59"/>
     </row>
     <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="100"/>
+      <c r="D61" s="109"/>
       <c r="E61" s="63" t="s">
         <v>51</v>
       </c>
@@ -3252,55 +3252,55 @@
       <c r="X61" s="53"/>
       <c r="Y61" s="53"/>
       <c r="Z61" s="53"/>
-      <c r="AA61" s="77"/>
-      <c r="AB61" s="77"/>
-      <c r="AC61" s="77"/>
-      <c r="AD61" s="76"/>
-      <c r="AE61" s="76"/>
-      <c r="AF61" s="76"/>
-      <c r="AG61" s="76"/>
-      <c r="AH61" s="76"/>
-      <c r="AI61" s="89"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="75"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75"/>
+      <c r="AH61" s="75"/>
+      <c r="AI61" s="88"/>
     </row>
     <row r="62" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D62" s="100"/>
-      <c r="E62" s="113" t="s">
+      <c r="D62" s="109"/>
+      <c r="E62" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="115"/>
-      <c r="W62" s="115"/>
-      <c r="X62" s="115"/>
-      <c r="Y62" s="115"/>
-      <c r="Z62" s="115"/>
-      <c r="AA62" s="115"/>
-      <c r="AB62" s="115"/>
-      <c r="AC62" s="115"/>
-      <c r="AD62" s="116"/>
-      <c r="AE62" s="116"/>
-      <c r="AF62" s="116"/>
-      <c r="AG62" s="116"/>
-      <c r="AH62" s="116"/>
-      <c r="AI62" s="117"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="101"/>
+      <c r="T62" s="101"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="101"/>
+      <c r="W62" s="101"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="101"/>
+      <c r="Z62" s="101"/>
+      <c r="AA62" s="101"/>
+      <c r="AB62" s="101"/>
+      <c r="AC62" s="101"/>
+      <c r="AD62" s="102"/>
+      <c r="AE62" s="102"/>
+      <c r="AF62" s="102"/>
+      <c r="AG62" s="102"/>
+      <c r="AH62" s="102"/>
+      <c r="AI62" s="103"/>
     </row>
     <row r="63" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="119"/>
-      <c r="E63" s="66" t="s">
+      <c r="D63" s="110"/>
+      <c r="E63" s="119" t="s">
         <v>59</v>
       </c>
       <c r="F63" s="65"/>
@@ -3312,7 +3312,7 @@
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
       <c r="N63" s="61"/>
-      <c r="O63" s="90"/>
+      <c r="O63" s="89"/>
       <c r="P63" s="61"/>
       <c r="Q63" s="61"/>
       <c r="R63" s="61"/>
@@ -3336,8 +3336,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D16"/>
@@ -3345,6 +3343,8 @@
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
     <mergeCell ref="D53:D63"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -163,106 +163,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>견적서 비교 및 의뢰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 다듬기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 스킬 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창에서 스킬 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 상세 정보 Notification에 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 주기 / 패시브 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 로그인 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 정보 전달 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창 터치 기능 제한 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 제작 UI 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 날씨 API에 따른 기획 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 DB 구축 / 업적 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 변경에 따른 기능 구현 / 데이터 버퍼 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>점수 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>견적서 비교 및 의뢰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 다듬기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속 스킬 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 창에서 스킬 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 상세 정보 Notification에 띄우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 주기 / 패시브 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정 창 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 DB 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 로그인 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 정보 전달 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 창 터치 기능 제한 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자체 제작 UI 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 데이터 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경된 날씨 API에 따른 기획 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 DB 구축 / 업적 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적창 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수 변경에 따른 기능 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,9 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,6 +1348,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,9 +1372,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1390,13 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,8 +1412,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
@@ -1725,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1769,7 +1772,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="105" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1785,7 +1788,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="117"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="117"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1816,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="118"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1830,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="105" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1843,7 +1846,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="117"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1860,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="117"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1874,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="118"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1901,7 +1904,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="112"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1918,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="112"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1929,7 +1932,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="112"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="112"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1960,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="113"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1987,7 +1990,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="112"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2004,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="112"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -2015,7 +2018,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="112"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2029,20 +2032,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="113"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="114" t="s">
+      <c r="I27" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2144,1207 +2147,1207 @@
       </c>
     </row>
     <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="57"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="56"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="105"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="59"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="105"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="58"/>
+    </row>
+    <row r="34" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D34" s="109"/>
+      <c r="E34" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="59"/>
-    </row>
-    <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="105"/>
-      <c r="E34" s="50" t="s">
+      <c r="F34" s="57"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="81"/>
+    </row>
+    <row r="35" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D35" s="109"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="58"/>
+    </row>
+    <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="110"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="61"/>
+    </row>
+    <row r="37" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D37" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="56"/>
+    </row>
+    <row r="38" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D38" s="109"/>
+      <c r="E38" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="58"/>
+    </row>
+    <row r="39" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D39" s="109"/>
+      <c r="E39" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="58"/>
+    </row>
+    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D40" s="109"/>
+      <c r="E40" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="58"/>
+    </row>
+    <row r="41" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D41" s="109"/>
+      <c r="E41" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="72"/>
+      <c r="AH41" s="72"/>
+      <c r="AI41" s="82"/>
+    </row>
+    <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="110"/>
+      <c r="E42" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="61"/>
+    </row>
+    <row r="43" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D43" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="82"/>
-    </row>
-    <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="105"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="59"/>
-    </row>
-    <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="106"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="62"/>
-    </row>
-    <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="57"/>
-    </row>
-    <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="105"/>
-      <c r="E38" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="59"/>
-    </row>
-    <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="105"/>
-      <c r="E39" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="59"/>
-    </row>
-    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="105"/>
-      <c r="E40" s="52" t="s">
+      <c r="F43" s="77"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="56"/>
+    </row>
+    <row r="44" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D44" s="109"/>
+      <c r="E44" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="58"/>
+    </row>
+    <row r="45" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D45" s="109"/>
+      <c r="E45" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="57"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="58"/>
+    </row>
+    <row r="46" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D46" s="109"/>
+      <c r="E46" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="57"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="58"/>
+    </row>
+    <row r="47" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D47" s="109"/>
+      <c r="E47" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="57"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="58"/>
+    </row>
+    <row r="48" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D48" s="109"/>
+      <c r="E48" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="57"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="58"/>
+    </row>
+    <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
+      <c r="D49" s="109"/>
+      <c r="E49" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="58"/>
+    </row>
+    <row r="50" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D50" s="109"/>
+      <c r="E50" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="57"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="58"/>
+    </row>
+    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D51" s="109"/>
+      <c r="E51" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="57"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="89"/>
+    </row>
+    <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="110"/>
+      <c r="E52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="59"/>
-    </row>
-    <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="105"/>
-      <c r="E41" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="83"/>
-    </row>
-    <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="106"/>
-      <c r="E42" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="61"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="62"/>
-    </row>
-    <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="57"/>
-    </row>
-    <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="105"/>
-      <c r="E44" s="52" t="s">
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="97"/>
+      <c r="V52" s="97"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="60"/>
+      <c r="AE52" s="60"/>
+      <c r="AF52" s="90"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="90"/>
+      <c r="AI52" s="91"/>
+    </row>
+    <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="79"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="65"/>
+      <c r="V53" s="65"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="65"/>
+      <c r="AC53" s="65"/>
+      <c r="AD53" s="65"/>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="65"/>
+      <c r="AG53" s="65"/>
+      <c r="AH53" s="65"/>
+      <c r="AI53" s="66"/>
+    </row>
+    <row r="54" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D54" s="112"/>
+      <c r="E54" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="59"/>
-    </row>
-    <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="105"/>
-      <c r="E45" s="55" t="s">
+      <c r="F54" s="63"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="58"/>
+    </row>
+    <row r="55" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D55" s="112"/>
+      <c r="E55" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="80"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="58"/>
+    </row>
+    <row r="56" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D56" s="112"/>
+      <c r="E56" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="59"/>
-    </row>
-    <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="105"/>
-      <c r="E46" s="50" t="s">
+      <c r="F56" s="63"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="75"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="58"/>
+    </row>
+    <row r="57" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D57" s="112"/>
+      <c r="E57" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="59"/>
-    </row>
-    <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="105"/>
-      <c r="E47" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="59"/>
-    </row>
-    <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="105"/>
-      <c r="E48" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="59"/>
-    </row>
-    <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="105"/>
-      <c r="E49" s="55" t="s">
+      <c r="F57" s="63"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="58"/>
+    </row>
+    <row r="58" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D58" s="112"/>
+      <c r="E58" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="63"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="58"/>
+    </row>
+    <row r="59" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D59" s="112"/>
+      <c r="E59" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="63"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="86"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="58"/>
+    </row>
+    <row r="60" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D60" s="112"/>
+      <c r="E60" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="63"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="75"/>
+      <c r="Z60" s="75"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="52"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="58"/>
+    </row>
+    <row r="61" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D61" s="112"/>
+      <c r="E61" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="74"/>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="53"/>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="59"/>
-    </row>
-    <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="105"/>
-      <c r="E50" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="74"/>
-      <c r="AB50" s="74"/>
-      <c r="AC50" s="74"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53"/>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="59"/>
-    </row>
-    <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="105"/>
-      <c r="E51" s="63" t="s">
+      <c r="F61" s="63"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75"/>
+      <c r="AD61" s="74"/>
+      <c r="AE61" s="74"/>
+      <c r="AF61" s="74"/>
+      <c r="AG61" s="74"/>
+      <c r="AH61" s="74"/>
+      <c r="AI61" s="87"/>
+    </row>
+    <row r="62" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D62" s="112"/>
+      <c r="E62" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="74"/>
-      <c r="AE51" s="74"/>
-      <c r="AF51" s="74"/>
-      <c r="AG51" s="74"/>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="90"/>
-    </row>
-    <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="106"/>
-      <c r="E52" s="1" t="s">
+      <c r="F62" s="99"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="100"/>
+      <c r="V62" s="100"/>
+      <c r="W62" s="100"/>
+      <c r="X62" s="100"/>
+      <c r="Y62" s="100"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="100"/>
+      <c r="AB62" s="100"/>
+      <c r="AC62" s="100"/>
+      <c r="AD62" s="101"/>
+      <c r="AE62" s="101"/>
+      <c r="AF62" s="101"/>
+      <c r="AG62" s="101"/>
+      <c r="AH62" s="101"/>
+      <c r="AI62" s="102"/>
+    </row>
+    <row r="63" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="113"/>
+      <c r="E63" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="98"/>
-      <c r="V52" s="98"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="91"/>
-      <c r="AG52" s="91"/>
-      <c r="AH52" s="91"/>
-      <c r="AI52" s="92"/>
-    </row>
-    <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
-      <c r="W53" s="66"/>
-      <c r="X53" s="66"/>
-      <c r="Y53" s="66"/>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="66"/>
-      <c r="AB53" s="66"/>
-      <c r="AC53" s="66"/>
-      <c r="AD53" s="66"/>
-      <c r="AE53" s="66"/>
-      <c r="AF53" s="66"/>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="66"/>
-      <c r="AI53" s="67"/>
-    </row>
-    <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="109"/>
-      <c r="E54" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="64"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
-      <c r="AF54" s="53"/>
-      <c r="AG54" s="53"/>
-      <c r="AH54" s="53"/>
-      <c r="AI54" s="59"/>
-    </row>
-    <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="109"/>
-      <c r="E55" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="53"/>
-      <c r="AD55" s="53"/>
-      <c r="AE55" s="53"/>
-      <c r="AF55" s="53"/>
-      <c r="AG55" s="53"/>
-      <c r="AH55" s="53"/>
-      <c r="AI55" s="59"/>
-    </row>
-    <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="109"/>
-      <c r="E56" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="76"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
-      <c r="AE56" s="53"/>
-      <c r="AF56" s="53"/>
-      <c r="AG56" s="53"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="59"/>
-    </row>
-    <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="109"/>
-      <c r="E57" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="53"/>
-      <c r="AA57" s="53"/>
-      <c r="AB57" s="53"/>
-      <c r="AC57" s="53"/>
-      <c r="AD57" s="53"/>
-      <c r="AE57" s="53"/>
-      <c r="AF57" s="53"/>
-      <c r="AG57" s="53"/>
-      <c r="AH57" s="53"/>
-      <c r="AI57" s="59"/>
-    </row>
-    <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="109"/>
-      <c r="E58" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="53"/>
-      <c r="AE58" s="53"/>
-      <c r="AF58" s="53"/>
-      <c r="AG58" s="53"/>
-      <c r="AH58" s="53"/>
-      <c r="AI58" s="59"/>
-    </row>
-    <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="109"/>
-      <c r="E59" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="75"/>
-      <c r="Z59" s="75"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="53"/>
-      <c r="AG59" s="53"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="59"/>
-    </row>
-    <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="109"/>
-      <c r="E60" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="75"/>
-      <c r="AD60" s="53"/>
-      <c r="AE60" s="53"/>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="53"/>
-      <c r="AH60" s="53"/>
-      <c r="AI60" s="59"/>
-    </row>
-    <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="109"/>
-      <c r="E61" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
-      <c r="Z61" s="53"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="75"/>
-      <c r="AE61" s="75"/>
-      <c r="AF61" s="75"/>
-      <c r="AG61" s="75"/>
-      <c r="AH61" s="75"/>
-      <c r="AI61" s="88"/>
-    </row>
-    <row r="62" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D62" s="109"/>
-      <c r="E62" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="100"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
-      <c r="U62" s="101"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="101"/>
-      <c r="Z62" s="101"/>
-      <c r="AA62" s="101"/>
-      <c r="AB62" s="101"/>
-      <c r="AC62" s="101"/>
-      <c r="AD62" s="102"/>
-      <c r="AE62" s="102"/>
-      <c r="AF62" s="102"/>
-      <c r="AG62" s="102"/>
-      <c r="AH62" s="102"/>
-      <c r="AI62" s="103"/>
-    </row>
-    <row r="63" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="110"/>
-      <c r="E63" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="89"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="61"/>
-      <c r="AG63" s="61"/>
-      <c r="AH63" s="61"/>
-      <c r="AI63" s="62"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="60"/>
+      <c r="AD63" s="60"/>
+      <c r="AE63" s="60"/>
+      <c r="AF63" s="60"/>
+      <c r="AG63" s="60"/>
+      <c r="AH63" s="60"/>
+      <c r="AI63" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D53:D63"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
-    <mergeCell ref="D53:D63"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{58BF53BE-3618-44C0-995E-2F081E80C380}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{58BF53BE-3618-44C0-995E-2F081E80C380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>8월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -191,78 +191,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>설정 창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 DB 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 로그인 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 정보 전달 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 창 터치 기능 제한 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+  </si>
+  <si>
+    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 제작 UI 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 날씨 API에 따른 기획 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 DB 구축 / 업적 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적창 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 변경에 따른 기능 구현 / 데이터 버퍼 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
+  </si>
+  <si>
     <t>상점 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정 창 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 DB 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 로그인 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 정보 전달 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 창 터치 기능 제한 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원할 시에 외부 창에서 보이지 않는 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간마다 서버로 사용자 정보 전송 / 저장 버튼 누르면 서버에 사용자 정보 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-  </si>
-  <si>
-    <t>게임 실행 후 오류 수정 / 기능 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자체 제작 UI 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 데이터 연동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경된 날씨 API에 따른 기획 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 DB 구축 / 업적 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적창 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수 변경에 따른 기능 구현 / 데이터 버퍼 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +366,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -775,7 +793,72 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -787,7 +870,152 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -801,229 +1029,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1038,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,10 +1201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1200,207 +1212,231 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1726,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
-  <dimension ref="D7:AI63"/>
+  <dimension ref="D7:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1772,7 +1808,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="122" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1788,7 +1824,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="106"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1802,7 +1838,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="106"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1852,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="107"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1866,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="122" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1846,7 +1882,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="106"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1896,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="106"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1910,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="107"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1888,7 +1924,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="116" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1904,7 +1940,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="115"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1918,7 +1954,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="115"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1968,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="115"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1982,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="115"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1996,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="116"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1974,7 +2010,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="116" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1990,7 +2026,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="115"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2040,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="115"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +2054,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="115"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2032,20 +2068,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="116"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="117" t="s">
+      <c r="I27" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="121"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2147,14 +2183,14 @@
       </c>
     </row>
     <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
@@ -2185,19 +2221,19 @@
       <c r="AI31" s="56"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="109"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="52"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="52"/>
@@ -2221,7 +2257,7 @@
       <c r="AI32" s="58"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="109"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="50" t="s">
         <v>34</v>
       </c>
@@ -2234,12 +2270,12 @@
       <c r="L33" s="52"/>
       <c r="M33" s="52"/>
       <c r="N33" s="52"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="52"/>
       <c r="V33" s="52"/>
       <c r="W33" s="52"/>
@@ -2257,7 +2293,7 @@
       <c r="AI33" s="58"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="109"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="50" t="s">
         <v>35</v>
       </c>
@@ -2275,25 +2311,25 @@
       <c r="Q34" s="52"/>
       <c r="R34" s="52"/>
       <c r="S34" s="52"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="81"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="80"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="109"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="50"/>
       <c r="F35" s="57"/>
       <c r="G35" s="52"/>
@@ -2327,7 +2363,7 @@
       <c r="AI35" s="58"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="110"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="53"/>
       <c r="F36" s="59"/>
       <c r="G36" s="60"/>
@@ -2361,14 +2397,14 @@
       <c r="AI36" s="61"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
@@ -2399,19 +2435,19 @@
       <c r="AI37" s="56"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="109"/>
-      <c r="E38" s="92" t="s">
+      <c r="D38" s="125"/>
+      <c r="E38" s="89" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="52"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="95"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="91"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
@@ -2435,9 +2471,9 @@
       <c r="AI38" s="58"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="109"/>
-      <c r="E39" s="104" t="s">
-        <v>59</v>
+      <c r="D39" s="125"/>
+      <c r="E39" s="98" t="s">
+        <v>57</v>
       </c>
       <c r="F39" s="57"/>
       <c r="G39" s="52"/>
@@ -2446,9 +2482,9 @@
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
@@ -2470,10 +2506,10 @@
       <c r="AH39" s="52"/>
       <c r="AI39" s="58"/>
     </row>
-    <row r="40" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D40" s="109"/>
+    <row r="40" spans="4:35" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D40" s="125"/>
       <c r="E40" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="52"/>
@@ -2484,11 +2520,13 @@
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" s="71"/>
+      <c r="S40" s="91"/>
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
       <c r="V40" s="52"/>
@@ -2507,7 +2545,7 @@
       <c r="AI40" s="58"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="109"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="51" t="s">
         <v>35</v>
       </c>
@@ -2521,31 +2559,31 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
       <c r="O41" s="52"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="72"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="72"/>
-      <c r="AF41" s="72"/>
-      <c r="AG41" s="72"/>
-      <c r="AH41" s="72"/>
-      <c r="AI41" s="82"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="71"/>
+      <c r="AI41" s="81"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="110"/>
-      <c r="E42" s="120" t="s">
-        <v>55</v>
+      <c r="D42" s="126"/>
+      <c r="E42" s="99" t="s">
+        <v>53</v>
       </c>
       <c r="F42" s="59"/>
       <c r="G42" s="60"/>
@@ -2554,9 +2592,9 @@
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
       <c r="P42" s="60"/>
       <c r="Q42" s="60"/>
       <c r="R42" s="60"/>
@@ -2579,26 +2617,26 @@
       <c r="AI42" s="61"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="105" t="s">
+      <c r="D43" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="77"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="112"/>
       <c r="T43" s="55"/>
       <c r="U43" s="55"/>
       <c r="V43" s="55"/>
@@ -2617,24 +2655,24 @@
       <c r="AI43" s="56"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="109"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="78"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
       <c r="T44" s="52"/>
       <c r="U44" s="52"/>
       <c r="V44" s="52"/>
@@ -2653,24 +2691,24 @@
       <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="109"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="54" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="57"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="52"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="91"/>
       <c r="T45" s="52"/>
       <c r="U45" s="52"/>
       <c r="V45" s="52"/>
@@ -2689,14 +2727,14 @@
       <c r="AI45" s="58"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="109"/>
+      <c r="D46" s="125"/>
       <c r="E46" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="57"/>
       <c r="G46" s="52"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
       <c r="J46" s="52"/>
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
@@ -2704,12 +2742,12 @@
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
       <c r="P46" s="52"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
       <c r="W46" s="52"/>
       <c r="X46" s="52"/>
       <c r="Y46" s="52"/>
@@ -2725,9 +2763,9 @@
       <c r="AI46" s="58"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="109"/>
-      <c r="E47" s="50" t="s">
-        <v>47</v>
+      <c r="D47" s="125"/>
+      <c r="E47" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="52"/>
@@ -2742,11 +2780,11 @@
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-      <c r="W47" s="52"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="94"/>
       <c r="X47" s="52"/>
       <c r="Y47" s="52"/>
       <c r="Z47" s="52"/>
@@ -2761,9 +2799,9 @@
       <c r="AI47" s="58"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="109"/>
-      <c r="E48" s="54" t="s">
-        <v>48</v>
+      <c r="D48" s="125"/>
+      <c r="E48" s="127" t="s">
+        <v>47</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="52"/>
@@ -2779,11 +2817,11 @@
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
       <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="52"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="63"/>
       <c r="Y48" s="52"/>
       <c r="Z48" s="52"/>
       <c r="AA48" s="52"/>
@@ -2796,11 +2834,9 @@
       <c r="AH48" s="52"/>
       <c r="AI48" s="58"/>
     </row>
-    <row r="49" spans="4:35" ht="33" x14ac:dyDescent="0.3">
-      <c r="D49" s="109"/>
-      <c r="E49" s="54" t="s">
-        <v>49</v>
-      </c>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.3">
+      <c r="D49" s="125"/>
+      <c r="E49" s="128"/>
       <c r="F49" s="57"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
@@ -2817,11 +2853,11 @@
       <c r="S49" s="52"/>
       <c r="T49" s="52"/>
       <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
       <c r="AA49" s="52"/>
       <c r="AB49" s="52"/>
       <c r="AC49" s="52"/>
@@ -2833,9 +2869,9 @@
       <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="109"/>
+      <c r="D50" s="125"/>
       <c r="E50" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="52"/>
@@ -2858,9 +2894,9 @@
       <c r="X50" s="52"/>
       <c r="Y50" s="52"/>
       <c r="Z50" s="52"/>
-      <c r="AA50" s="73"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="73"/>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="72"/>
+      <c r="AC50" s="72"/>
       <c r="AD50" s="52"/>
       <c r="AE50" s="52"/>
       <c r="AF50" s="52"/>
@@ -2869,9 +2905,9 @@
       <c r="AI50" s="58"/>
     </row>
     <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="109"/>
+      <c r="D51" s="125"/>
       <c r="E51" s="62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="57"/>
       <c r="G51" s="52"/>
@@ -2897,17 +2933,17 @@
       <c r="AA51" s="52"/>
       <c r="AB51" s="52"/>
       <c r="AC51" s="52"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-      <c r="AF51" s="73"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="89"/>
+      <c r="AD51" s="72"/>
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="72"/>
+      <c r="AG51" s="72"/>
+      <c r="AH51" s="72"/>
+      <c r="AI51" s="86"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="110"/>
+      <c r="D52" s="126"/>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="60"/>
@@ -2924,8 +2960,8 @@
       <c r="R52" s="60"/>
       <c r="S52" s="60"/>
       <c r="T52" s="60"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="97"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
       <c r="W52" s="60"/>
       <c r="X52" s="60"/>
       <c r="Y52" s="60"/>
@@ -2935,67 +2971,67 @@
       <c r="AC52" s="60"/>
       <c r="AD52" s="60"/>
       <c r="AE52" s="60"/>
-      <c r="AF52" s="90"/>
-      <c r="AG52" s="90"/>
-      <c r="AH52" s="90"/>
-      <c r="AI52" s="91"/>
+      <c r="AF52" s="87"/>
+      <c r="AG52" s="87"/>
+      <c r="AH52" s="87"/>
+      <c r="AI52" s="88"/>
     </row>
     <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="94" t="s">
+      <c r="E53" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="79"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="65"/>
-      <c r="AD53" s="65"/>
-      <c r="AE53" s="65"/>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="66"/>
-    </row>
-    <row r="54" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D54" s="112"/>
-      <c r="E54" s="85" t="s">
+      <c r="F53" s="78"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64"/>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="64"/>
+      <c r="AE53" s="64"/>
+      <c r="AF53" s="64"/>
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="65"/>
+    </row>
+    <row r="54" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="114"/>
+      <c r="E54" s="106" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="63"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="52"/>
       <c r="K54" s="52"/>
       <c r="L54" s="52"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="75"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
       <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
       <c r="T54" s="52"/>
       <c r="U54" s="52"/>
       <c r="V54" s="52"/>
@@ -3013,24 +3049,24 @@
       <c r="AH54" s="52"/>
       <c r="AI54" s="58"/>
     </row>
-    <row r="55" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D55" s="112"/>
-      <c r="E55" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="74"/>
+    <row r="55" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="114"/>
+      <c r="E55" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="79"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="52"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="73"/>
       <c r="S55" s="52"/>
       <c r="T55" s="52"/>
       <c r="U55" s="52"/>
@@ -3049,10 +3085,10 @@
       <c r="AH55" s="52"/>
       <c r="AI55" s="58"/>
     </row>
-    <row r="56" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D56" s="112"/>
-      <c r="E56" s="62" t="s">
-        <v>41</v>
+    <row r="56" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="114"/>
+      <c r="E56" s="107" t="s">
+        <v>46</v>
       </c>
       <c r="F56" s="63"/>
       <c r="G56" s="52"/>
@@ -3061,17 +3097,17 @@
       <c r="J56" s="52"/>
       <c r="K56" s="52"/>
       <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
       <c r="O56" s="52"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="75"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
       <c r="X56" s="52"/>
       <c r="Y56" s="52"/>
       <c r="Z56" s="52"/>
@@ -3085,10 +3121,10 @@
       <c r="AH56" s="52"/>
       <c r="AI56" s="58"/>
     </row>
-    <row r="57" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D57" s="112"/>
-      <c r="E57" s="62" t="s">
-        <v>43</v>
+    <row r="57" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="114"/>
+      <c r="E57" s="106" t="s">
+        <v>42</v>
       </c>
       <c r="F57" s="63"/>
       <c r="G57" s="52"/>
@@ -3102,12 +3138,12 @@
       <c r="O57" s="52"/>
       <c r="P57" s="52"/>
       <c r="Q57" s="52"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
       <c r="X57" s="52"/>
       <c r="Y57" s="52"/>
       <c r="Z57" s="52"/>
@@ -3121,10 +3157,10 @@
       <c r="AH57" s="52"/>
       <c r="AI57" s="58"/>
     </row>
-    <row r="58" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D58" s="112"/>
-      <c r="E58" s="62" t="s">
-        <v>44</v>
+    <row r="58" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="114"/>
+      <c r="E58" s="106" t="s">
+        <v>43</v>
       </c>
       <c r="F58" s="63"/>
       <c r="G58" s="52"/>
@@ -3143,8 +3179,8 @@
       <c r="T58" s="52"/>
       <c r="U58" s="52"/>
       <c r="V58" s="52"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
       <c r="Y58" s="52"/>
       <c r="Z58" s="52"/>
       <c r="AA58" s="52"/>
@@ -3157,10 +3193,10 @@
       <c r="AH58" s="52"/>
       <c r="AI58" s="58"/>
     </row>
-    <row r="59" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D59" s="112"/>
-      <c r="E59" s="62" t="s">
-        <v>45</v>
+    <row r="59" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="114"/>
+      <c r="E59" s="106" t="s">
+        <v>44</v>
       </c>
       <c r="F59" s="63"/>
       <c r="G59" s="52"/>
@@ -3180,9 +3216,9 @@
       <c r="U59" s="52"/>
       <c r="V59" s="52"/>
       <c r="W59" s="52"/>
-      <c r="X59" s="86"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
       <c r="AA59" s="52"/>
       <c r="AB59" s="52"/>
       <c r="AC59" s="52"/>
@@ -3193,10 +3229,10 @@
       <c r="AH59" s="52"/>
       <c r="AI59" s="58"/>
     </row>
-    <row r="60" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D60" s="112"/>
-      <c r="E60" s="62" t="s">
-        <v>46</v>
+    <row r="60" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="114"/>
+      <c r="E60" s="106" t="s">
+        <v>45</v>
       </c>
       <c r="F60" s="63"/>
       <c r="G60" s="52"/>
@@ -3217,11 +3253,11 @@
       <c r="V60" s="52"/>
       <c r="W60" s="52"/>
       <c r="X60" s="52"/>
-      <c r="Y60" s="75"/>
-      <c r="Z60" s="75"/>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="73"/>
+      <c r="AC60" s="73"/>
       <c r="AD60" s="52"/>
       <c r="AE60" s="52"/>
       <c r="AF60" s="52"/>
@@ -3229,10 +3265,10 @@
       <c r="AH60" s="52"/>
       <c r="AI60" s="58"/>
     </row>
-    <row r="61" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D61" s="112"/>
-      <c r="E61" s="62" t="s">
-        <v>50</v>
+    <row r="61" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="114"/>
+      <c r="E61" s="106" t="s">
+        <v>48</v>
       </c>
       <c r="F61" s="63"/>
       <c r="G61" s="52"/>
@@ -3255,91 +3291,127 @@
       <c r="X61" s="52"/>
       <c r="Y61" s="52"/>
       <c r="Z61" s="52"/>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="75"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="74"/>
-      <c r="AF61" s="74"/>
-      <c r="AG61" s="74"/>
-      <c r="AH61" s="74"/>
-      <c r="AI61" s="87"/>
-    </row>
-    <row r="62" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D62" s="112"/>
-      <c r="E62" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="99"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="100"/>
-      <c r="U62" s="100"/>
-      <c r="V62" s="100"/>
-      <c r="W62" s="100"/>
-      <c r="X62" s="100"/>
-      <c r="Y62" s="100"/>
-      <c r="Z62" s="100"/>
-      <c r="AA62" s="100"/>
-      <c r="AB62" s="100"/>
-      <c r="AC62" s="100"/>
-      <c r="AD62" s="101"/>
-      <c r="AE62" s="101"/>
-      <c r="AF62" s="101"/>
-      <c r="AG62" s="101"/>
-      <c r="AH62" s="101"/>
-      <c r="AI62" s="102"/>
-    </row>
-    <row r="63" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="113"/>
-      <c r="E63" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
-      <c r="AF63" s="60"/>
-      <c r="AG63" s="60"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="61"/>
+      <c r="AA61" s="74"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="74"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="73"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="73"/>
+      <c r="AH61" s="73"/>
+      <c r="AI61" s="85"/>
+    </row>
+    <row r="62" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="114"/>
+      <c r="E62" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="94"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="95"/>
+      <c r="S62" s="95"/>
+      <c r="T62" s="95"/>
+      <c r="U62" s="95"/>
+      <c r="V62" s="95"/>
+      <c r="W62" s="95"/>
+      <c r="X62" s="95"/>
+      <c r="Y62" s="95"/>
+      <c r="Z62" s="95"/>
+      <c r="AA62" s="95"/>
+      <c r="AB62" s="95"/>
+      <c r="AC62" s="95"/>
+      <c r="AD62" s="96"/>
+      <c r="AE62" s="96"/>
+      <c r="AF62" s="96"/>
+      <c r="AG62" s="96"/>
+      <c r="AH62" s="96"/>
+      <c r="AI62" s="97"/>
+    </row>
+    <row r="63" spans="4:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="114"/>
+      <c r="E63" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="94"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="95"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="95"/>
+      <c r="W63" s="95"/>
+      <c r="X63" s="95"/>
+      <c r="Y63" s="95"/>
+      <c r="Z63" s="95"/>
+      <c r="AA63" s="95"/>
+      <c r="AB63" s="95"/>
+      <c r="AC63" s="95"/>
+      <c r="AD63" s="95"/>
+      <c r="AE63" s="95"/>
+      <c r="AF63" s="95"/>
+      <c r="AG63" s="95"/>
+      <c r="AH63" s="95"/>
+      <c r="AI63" s="110"/>
+    </row>
+    <row r="64" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="115"/>
+      <c r="E64" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="59"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="60"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+      <c r="AB64" s="60"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="60"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="60"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="60"/>
+      <c r="AI64" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D53:D63"/>
+  <mergeCells count="10">
+    <mergeCell ref="D53:D64"/>
     <mergeCell ref="D17:D22"/>
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="I27:M27"/>
@@ -3348,6 +3420,7 @@
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E48:E49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/일정표.xlsx
+++ b/문서/일정표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{58BF53BE-3618-44C0-995E-2F081E80C380}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{58BF53BE-3618-44C0-995E-2F081E80C380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,14 +1204,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1764,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA0C98-1D1A-4475-83B6-419354D0A07A}">
   <dimension ref="D7:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1808,7 +1802,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="120" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1824,7 +1818,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="4:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="123"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1832,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="123"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="37" t="s">
         <v>21</v>
       </c>
@@ -1852,7 +1846,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="124"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="39" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1860,7 @@
       <c r="M12" s="41"/>
     </row>
     <row r="13" spans="4:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="120" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="42" t="s">
@@ -1882,7 +1876,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="4:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="123"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="43" t="s">
         <v>5</v>
       </c>
@@ -1896,7 +1890,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="123"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="44" t="s">
         <v>25</v>
       </c>
@@ -1910,7 +1904,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="124"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="38" t="s">
         <v>23</v>
       </c>
@@ -1924,7 +1918,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="114" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -1940,7 +1934,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="117"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="46" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +1948,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:35" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="117"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="22" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1962,7 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="4:35" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="117"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1976,7 @@
       <c r="M20" s="25"/>
     </row>
     <row r="21" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="117"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +1990,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:35" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="118"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2004,7 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="114" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -2026,7 +2020,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="4:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="117"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
@@ -2040,7 +2034,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="4:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="117"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="31" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2048,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D26" s="117"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="22" t="s">
         <v>14</v>
       </c>
@@ -2068,20 +2062,20 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="4:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="118"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="119" t="s">
+      <c r="I27" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
     </row>
     <row r="29" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
@@ -2183,1231 +2177,1231 @@
       </c>
     </row>
     <row r="31" spans="4:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="56"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D32" s="125"/>
-      <c r="E32" s="50" t="s">
+      <c r="D32" s="123"/>
+      <c r="E32" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="57"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="58"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="56"/>
     </row>
     <row r="33" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D33" s="125"/>
-      <c r="E33" s="50" t="s">
+      <c r="D33" s="123"/>
+      <c r="E33" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="58"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="56"/>
     </row>
     <row r="34" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D34" s="125"/>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="123"/>
+      <c r="E34" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="70"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="70"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="70"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="80"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="78"/>
     </row>
     <row r="35" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D35" s="125"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="58"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="56"/>
     </row>
     <row r="36" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="126"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="61"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="59"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="56"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="54"/>
     </row>
     <row r="38" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D38" s="125"/>
-      <c r="E38" s="89" t="s">
+      <c r="D38" s="123"/>
+      <c r="E38" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="58"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="56"/>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D39" s="125"/>
-      <c r="E39" s="98" t="s">
+      <c r="D39" s="123"/>
+      <c r="E39" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="58"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="56"/>
     </row>
     <row r="40" spans="4:35" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D40" s="125"/>
-      <c r="E40" s="51" t="s">
+      <c r="D40" s="123"/>
+      <c r="E40" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="100" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="R40" s="71"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="58"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="56"/>
     </row>
     <row r="41" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D41" s="125"/>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="123"/>
+      <c r="E41" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="81"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="69"/>
+      <c r="AH41" s="69"/>
+      <c r="AI41" s="79"/>
     </row>
     <row r="42" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="126"/>
-      <c r="E42" s="99" t="s">
+      <c r="D42" s="124"/>
+      <c r="E42" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="61"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="59"/>
     </row>
     <row r="43" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D43" s="122" t="s">
+      <c r="D43" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="56"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="110"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="54"/>
     </row>
     <row r="44" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D44" s="125"/>
-      <c r="E44" s="51" t="s">
+      <c r="D44" s="123"/>
+      <c r="E44" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="58"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="51"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="56"/>
     </row>
     <row r="45" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D45" s="125"/>
-      <c r="E45" s="54" t="s">
+      <c r="D45" s="123"/>
+      <c r="E45" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52"/>
-      <c r="AI45" s="58"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="56"/>
     </row>
     <row r="46" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D46" s="125"/>
+      <c r="D46" s="123"/>
       <c r="E46" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="58"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="56"/>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D47" s="125"/>
-      <c r="E47" s="62" t="s">
+      <c r="D47" s="123"/>
+      <c r="E47" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52"/>
-      <c r="AI47" s="58"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="56"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D48" s="125"/>
-      <c r="E48" s="127" t="s">
+      <c r="D48" s="123"/>
+      <c r="E48" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="58"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="56"/>
     </row>
     <row r="49" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D49" s="125"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="58"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="70"/>
+      <c r="Y49" s="70"/>
+      <c r="Z49" s="70"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="56"/>
     </row>
     <row r="50" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D50" s="125"/>
+      <c r="D50" s="123"/>
       <c r="E50" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="72"/>
-      <c r="AB50" s="72"/>
-      <c r="AC50" s="72"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="58"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="51"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="70"/>
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="56"/>
     </row>
     <row r="51" spans="4:35" x14ac:dyDescent="0.3">
-      <c r="D51" s="125"/>
-      <c r="E51" s="62" t="s">
+      <c r="D51" s="123"/>
+      <c r="E51" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="72"/>
-      <c r="AI51" s="86"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="70"/>
+      <c r="AE51" s="70"/>
+      <c r="AF51" s="70"/>
+      <c r="AG51" s="70"/>
+      <c r="AH51" s="70"/>
+      <c r="AI51" s="84"/>
     </row>
     <row r="52" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="126"/>
+      <c r="D52" s="124"/>
       <c r="E52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
-      <c r="AB52" s="60"/>
-      <c r="AC52" s="60"/>
-      <c r="AD52" s="60"/>
-      <c r="AE52" s="60"/>
-      <c r="AF52" s="87"/>
-      <c r="AG52" s="87"/>
-      <c r="AH52" s="87"/>
-      <c r="AI52" s="88"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="91"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="85"/>
+      <c r="AG52" s="85"/>
+      <c r="AH52" s="85"/>
+      <c r="AI52" s="86"/>
     </row>
     <row r="53" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="105" t="s">
+      <c r="E53" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="64"/>
-      <c r="U53" s="64"/>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="64"/>
-      <c r="Z53" s="64"/>
-      <c r="AA53" s="64"/>
-      <c r="AB53" s="64"/>
-      <c r="AC53" s="64"/>
-      <c r="AD53" s="64"/>
-      <c r="AE53" s="64"/>
-      <c r="AF53" s="64"/>
-      <c r="AG53" s="64"/>
-      <c r="AH53" s="64"/>
-      <c r="AI53" s="65"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="62"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
+      <c r="AI53" s="63"/>
     </row>
     <row r="54" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="114"/>
-      <c r="E54" s="106" t="s">
+      <c r="D54" s="112"/>
+      <c r="E54" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="63"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="74"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="58"/>
+      <c r="F54" s="61"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="56"/>
     </row>
     <row r="55" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="114"/>
-      <c r="E55" s="107" t="s">
+      <c r="D55" s="112"/>
+      <c r="E55" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="79"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="58"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="56"/>
     </row>
     <row r="56" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="114"/>
-      <c r="E56" s="107" t="s">
+      <c r="D56" s="112"/>
+      <c r="E56" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="63"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
-      <c r="AD56" s="52"/>
-      <c r="AE56" s="52"/>
-      <c r="AF56" s="52"/>
-      <c r="AG56" s="52"/>
-      <c r="AH56" s="52"/>
-      <c r="AI56" s="58"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="56"/>
     </row>
     <row r="57" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="114"/>
-      <c r="E57" s="106" t="s">
+      <c r="D57" s="112"/>
+      <c r="E57" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-      <c r="T57" s="74"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52"/>
-      <c r="AI57" s="58"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="51"/>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
+      <c r="AH57" s="51"/>
+      <c r="AI57" s="56"/>
     </row>
     <row r="58" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="114"/>
-      <c r="E58" s="106" t="s">
+      <c r="D58" s="112"/>
+      <c r="E58" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="74"/>
-      <c r="X58" s="74"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="52"/>
-      <c r="AI58" s="58"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="72"/>
+      <c r="X58" s="72"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
+      <c r="AF58" s="51"/>
+      <c r="AG58" s="51"/>
+      <c r="AH58" s="51"/>
+      <c r="AI58" s="56"/>
     </row>
     <row r="59" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="114"/>
-      <c r="E59" s="106" t="s">
+      <c r="D59" s="112"/>
+      <c r="E59" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52"/>
-      <c r="AI59" s="58"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
+      <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="56"/>
     </row>
     <row r="60" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="114"/>
-      <c r="E60" s="106" t="s">
+      <c r="D60" s="112"/>
+      <c r="E60" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="63"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="74"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
-      <c r="AF60" s="52"/>
-      <c r="AG60" s="52"/>
-      <c r="AH60" s="52"/>
-      <c r="AI60" s="58"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="72"/>
+      <c r="Z60" s="72"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="51"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="56"/>
     </row>
     <row r="61" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="114"/>
-      <c r="E61" s="106" t="s">
+      <c r="D61" s="112"/>
+      <c r="E61" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="74"/>
-      <c r="AB61" s="74"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="73"/>
-      <c r="AE61" s="73"/>
-      <c r="AF61" s="73"/>
-      <c r="AG61" s="73"/>
-      <c r="AH61" s="73"/>
-      <c r="AI61" s="85"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="83"/>
     </row>
     <row r="62" spans="4:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="114"/>
-      <c r="E62" s="108" t="s">
+      <c r="D62" s="112"/>
+      <c r="E62" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="94"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
-      <c r="S62" s="95"/>
-      <c r="T62" s="95"/>
-      <c r="U62" s="95"/>
-      <c r="V62" s="95"/>
-      <c r="W62" s="95"/>
-      <c r="X62" s="95"/>
-      <c r="Y62" s="95"/>
-      <c r="Z62" s="95"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="95"/>
-      <c r="AC62" s="95"/>
-      <c r="AD62" s="96"/>
-      <c r="AE62" s="96"/>
-      <c r="AF62" s="96"/>
-      <c r="AG62" s="96"/>
-      <c r="AH62" s="96"/>
-      <c r="AI62" s="97"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
+      <c r="AC62" s="93"/>
+      <c r="AD62" s="94"/>
+      <c r="AE62" s="94"/>
+      <c r="AF62" s="94"/>
+      <c r="AG62" s="94"/>
+      <c r="AH62" s="94"/>
+      <c r="AI62" s="95"/>
     </row>
     <row r="63" spans="4:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="114"/>
-      <c r="E63" s="101" t="s">
+      <c r="D63" s="112"/>
+      <c r="E63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
-      <c r="T63" s="95"/>
-      <c r="U63" s="95"/>
-      <c r="V63" s="95"/>
-      <c r="W63" s="95"/>
-      <c r="X63" s="95"/>
-      <c r="Y63" s="95"/>
-      <c r="Z63" s="95"/>
-      <c r="AA63" s="95"/>
-      <c r="AB63" s="95"/>
-      <c r="AC63" s="95"/>
-      <c r="AD63" s="95"/>
-      <c r="AE63" s="95"/>
-      <c r="AF63" s="95"/>
-      <c r="AG63" s="95"/>
-      <c r="AH63" s="95"/>
-      <c r="AI63" s="110"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="94"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="93"/>
+      <c r="Y63" s="93"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="93"/>
+      <c r="AC63" s="93"/>
+      <c r="AD63" s="93"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="93"/>
+      <c r="AG63" s="93"/>
+      <c r="AH63" s="93"/>
+      <c r="AI63" s="108"/>
     </row>
     <row r="64" spans="4:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="115"/>
-      <c r="E64" s="109" t="s">
+      <c r="D64" s="113"/>
+      <c r="E64" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="59"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="111"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
-      <c r="V64" s="60"/>
-      <c r="W64" s="60"/>
-      <c r="X64" s="60"/>
-      <c r="Y64" s="60"/>
-      <c r="Z64" s="60"/>
-      <c r="AA64" s="60"/>
-      <c r="AB64" s="60"/>
-      <c r="AC64" s="60"/>
-      <c r="AD64" s="60"/>
-      <c r="AE64" s="60"/>
-      <c r="AF64" s="60"/>
-      <c r="AG64" s="60"/>
-      <c r="AH64" s="60"/>
-      <c r="AI64" s="61"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="58"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="58"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="58"/>
+      <c r="AA64" s="58"/>
+      <c r="AB64" s="58"/>
+      <c r="AC64" s="58"/>
+      <c r="AD64" s="58"/>
+      <c r="AE64" s="58"/>
+      <c r="AF64" s="58"/>
+      <c r="AG64" s="58"/>
+      <c r="AH64" s="58"/>
+      <c r="AI64" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
